--- a/output/credit_card_accepted.xlsx
+++ b/output/credit_card_accepted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100345</v>
+        <v>100346</v>
       </c>
       <c r="B2" t="n">
-        <v>9594567321</v>
+        <v>9594567322</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100347</v>
+        <v>100348</v>
       </c>
       <c r="B3" t="n">
-        <v>9594567323</v>
+        <v>9594567324</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100351</v>
+        <v>100350</v>
       </c>
       <c r="B4" t="n">
-        <v>9594567327</v>
+        <v>9594567326</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100354</v>
+        <v>100353</v>
       </c>
       <c r="B5" t="n">
-        <v>9594567330</v>
+        <v>9594567329</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100356</v>
+        <v>100355</v>
       </c>
       <c r="B6" t="n">
-        <v>9594567332</v>
+        <v>9594567331</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100359</v>
+        <v>100357</v>
       </c>
       <c r="B7" t="n">
-        <v>9594567335</v>
+        <v>9594567333</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100362</v>
+        <v>100361</v>
       </c>
       <c r="B8" t="n">
-        <v>9594567338</v>
+        <v>9594567337</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100363</v>
+        <v>100368</v>
       </c>
       <c r="B9" t="n">
-        <v>9594567339</v>
+        <v>9594567344</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100365</v>
+        <v>100377</v>
       </c>
       <c r="B10" t="n">
-        <v>9594567341</v>
+        <v>9594567353</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100366</v>
+        <v>100380</v>
       </c>
       <c r="B11" t="n">
-        <v>9594567342</v>
+        <v>9594567356</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100367</v>
+        <v>100383</v>
       </c>
       <c r="B12" t="n">
-        <v>9594567343</v>
+        <v>9594567359</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100370</v>
+        <v>100386</v>
       </c>
       <c r="B13" t="n">
-        <v>9594567346</v>
+        <v>9594567362</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -584,67 +584,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100375</v>
+        <v>100391</v>
       </c>
       <c r="B14" t="n">
-        <v>9594567351</v>
+        <v>9594567367</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>100378</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9594567354</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>100379</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9594567355</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>100382</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9594567358</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>100384</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9594567360</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>100388</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9594567364</v>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output/credit_card_accepted.xlsx
+++ b/output/credit_card_accepted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Credit card acceptance</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gen_AI_Response</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,21 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is 45 years old and has been associated with the bank for 19 years. They have an income of 34,000 in thousands and a family of 3 members. Their average monthly expenditure is 1,500 in thousands. They have a higher secondary education level and do not have a mortgage amount. They have a security account, CDAccount, and have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
+2. Credit counseling: Since the customer does not have a credit card, the bank can offer credit counseling services to educate them about the benefits of having a credit card and how to use it responsibly.
+3. Savings and investment options: The bank can offer various savings and investment options to help the customer grow their wealth and achieve their financial goals.
+4. Family banking services: As the customer has a family of 3 members, the bank can offer family banking services such as joint accounts, family insurance plans, and education loans for their children.
+5. Online banking and mobile app: The bank can encourage the customer to opt for online banking and use their mobile app for convenient and secure banking services.
+6. Loyalty programs: As the customer has been associated with the bank for 19 years, the bank can offer loyalty programs and rewards to show appreciation and retain their loyalty.
+7. Financial education: The bank can conduct financial education workshops or webinars to educate the customer about various financial products and services, budgeting, and financial planning.
+Overall, by offering personalized and relevant services, the bank can better understand the customer and build a long-term relationship with them. </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +491,20 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 per year and have a total of 1 family member. Their average monthly expenditure is 2,700. They have completed graduation (education level 2) and do not have a mortgage. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: Since the person has been associated with the bank for 9 years and has a stable income, the bank can offer personalized financial planning services to help them achieve their financial goals.
+2. Investment options: With a CDAccount, it can be assumed that the person is interested in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+3. Savings and budgeting tools: The person's average monthly expenditure is 2,700, which indicates that they may need help with budgeting and saving. The bank can offer tools and resources to help the customer track their expenses and save more effectively.
+4. Credit card education: Since the person has not opted for a credit card, the bank can offer educational resources and guidance on how to use credit cards responsibly and the benefits of having one.
+5. Online banking and mobile app: As the person has not opted for online banking, the bank can promote the convenience and security of online banking and encourage the customer to sign up for it. This will also give the bank more insights into the customer's spending habits and preferences.
+6. Family banking services: With only one family member, the bank can offer family banking services such as joint accounts, financial planning for the family, and special offers for family members.
+Overall, the bank can use the information from the ML model to understand the customer's financial behavior and offer personalized services to cater to their needs and preferences. This will not only help the customer but also strengthen the relationship between the bank and the customer.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +516,19 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 37-year-old individual who has been associated with the bank for 13 years. They have an income of $29,000 per year and a family of four members. Their average monthly expenditure is $400 and they have a graduation degree. They have a mortgage amount of $155 and do not have a security account. However, they do have a CDAccount and have opted for online banking. The ML model has predicted that this person might opt for a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized Credit Card Offerings: The bank can offer personalized credit card options based on the customer's income, expenditure, and credit history. This will help the customer choose a credit card that best suits their needs and financial situation.
+2. Financial Planning Services: As the customer has a family and a mortgage, the bank can offer financial planning services to help them manage their finances better. This can include budgeting, investment advice, and retirement planning.
+3. Education Loan Services: As the customer has a graduation degree, the bank can offer education loan services for their family members who may want to pursue higher education. This will help the customer and their family members achieve their educational goals without worrying about the financial burden.
+4. Online Banking Education: Since the customer has opted for online banking, the bank can offer educational resources and tutorials to help them make the most of their online banking experience. This can include tips on how to use online banking efficiently and securely.
+5. Credit Score Monitoring: The bank can offer credit score monitoring services to help the customer keep track of their credit score and take necessary steps to improve it. This will also help the bank understand the customer's creditworthiness and offer them better financial products in the future.
+Overall, by offering personalized and relevant services, the bank can better understand the customer's needs and build a strong and long-lasting relationship with them. </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +540,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 35-year-old with a long-standing relationship with the bank of 10 years. They have a high income of 81,000 per year and a small family of 3 members. Their average monthly expenditure is relatively low at 600, indicating good financial management skills. They have a decent education level with a graduation degree. 
+The person also has a mortgage amount of 104, suggesting they may have a stable financial situation and are capable of taking on loans. They do not have a security account, which could indicate a lower risk tolerance. However, they do have a CDAccount and have opted for online banking, indicating they are comfortable with technology and may be open to new banking services. 
+Based on this information, the bank can offer services such as investment options, retirement planning, and financial advice to help the person grow their wealth. They can also offer credit card options with attractive rewards and benefits to entice the person to opt for one. Additionally, the bank can provide personalized financial planning services to help the person achieve their financial goals.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +559,21 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have an income of 105,000 per year and a family of 4 members. Their average monthly expenditure is 2,400. They have a post-graduate education level and do not have any mortgage amount. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Retirement planning: As the person is nearing retirement age, the bank can offer retirement planning services to help them manage their finances and investments for a secure future.
+2. Wealth management: With a high income and a post-graduate education level, the person may have significant assets that require professional management. The bank can offer wealth management services to help them grow and protect their wealth.
+3. Family financial planning: With a family of 4 members, the bank can offer financial planning services to help the customer manage their family's expenses and plan for their future needs.
+4. Investment options: As the person has a CDAccount, the bank can offer them various investment options such as fixed deposits, mutual funds, and other investment products to help them grow their savings.
+5. Credit card services: Although the person has not opted for a credit card, the bank can offer them credit card services with attractive rewards and benefits to suit their lifestyle and spending habits.
+6. Online banking: The person has not opted for online banking, but the bank can offer them this service to make their banking experience more convenient and efficient.
+7. Personalized financial advice: With the help of the ML model, the bank can offer personalized financial advice to the customer based on their spending patterns, income, and other factors. This can help the customer make informed financial decisions.
+Overall, by offering these services, the bank can gain a better understanding of the customer's needs and preferences and build a long-term relationship with them. </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +585,18 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank (23 years). They have a relatively high income of 114,000 per year and a small family of two members. Their average monthly expenditure is 3,800, indicating that they have a good financial standing.
+The person has a high level of education, with a post-graduation degree. This suggests that they are well-educated and may have a good understanding of financial services.
+They do not have a mortgage amount, indicating that they may own their own home or have paid off their mortgage. This could suggest that they have a stable financial situation.
+The person has a security account and a CDAccount, indicating that they are interested in investing and saving money. This could be a potential opportunity for the bank to offer investment services or financial planning advice.
+However, the person has not opted for online banking or a credit card. This could suggest that they are not comfortable with technology or prefer traditional banking methods. The bank could offer personalized assistance and education on the benefits of online banking and credit cards to help the customer understand and utilize these services.
+Based on the person's profile, the bank could also offer services such as retirement planning, wealth management, and insurance products. They could also provide personalized financial advice and assistance in achieving their financial goals.
+Overall, the person seems to be a financially stable and educated individual who is interested in investing and saving money. The bank can use this information to offer personalized services and help the customer understand and utilize various financial products. </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +608,20 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is 38 years old and has been associated with the bank for 14 years. They have a high income of 130,000 and a family of four. Their average monthly expenditure is 4,700. They have a post-graduate education level and a mortgage amount of 134. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to this customer:
+1. Personalized financial planning: With a high income and a family to support, the bank can offer personalized financial planning services to help the customer manage their finances better and achieve their financial goals.
+2. Mortgage refinancing: The customer has a mortgage amount of 134, which indicates that they may be interested in refinancing their mortgage to get better interest rates or lower monthly payments. The bank can offer this service to the customer.
+3. Investment options: Since the customer has a CDAccount, they may be interested in exploring other investment options. The bank can offer various investment products such as mutual funds, stocks, and bonds to help the customer diversify their portfolio and grow their wealth.
+4. Credit card options: Although the customer has not opted for a credit card, the bank can offer them various credit card options that suit their needs and lifestyle. This can help the bank increase their customer base and also provide the customer with a convenient mode of payment.
+5. Online banking and mobile app: The customer has not opted for online banking, but the bank can encourage them to use their online and mobile banking services. This will not only make banking more convenient for the customer but also help the bank gather more data on their spending habits and preferences.
+6. Rewards and loyalty programs: The bank can offer rewards and loyalty programs to the customer for using their services. This will not only incentivize the customer to use the bank's services more but also help the bank understand their preferences and spending patterns.
+Overall, by offering personalized and tailored services, the bank can better understand and cater to this customer's needs and preferences, thereby building a strong and long-lasting relationship with them.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -537,6 +633,13 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 44-year-old with a long-standing relationship with the bank, having been a customer for 18 years. They have a moderate income of $43,000 per year and a small family of two members. Their average monthly expenditure is relatively low at $700. They have a higher secondary education level and do not have any outstanding mortgage amount. However, they do have a security account and a CDAccount with the bank.
+Since the ML model has predicted that this person is likely to opt for a credit card, the bank can offer them personalized credit card options based on their income and spending habits. They can also offer them financial planning and investment services, given their long-standing relationship with the bank and their CDAccount. Additionally, the bank can provide them with online banking services and encourage them to opt for net banking, as they do not currently have an online account. This will not only make banking more convenient for the customer but also help the bank gather more data on their spending patterns and offer them more personalized services in the future. The bank can also offer them rewards and loyalty programs for using their credit card and other services, to further incentivize them to continue their relationship with the bank.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -548,6 +651,13 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 53-year-old individual who has been associated with the bank for 28 years. They have an income of 41,000 dollars per year and a family of two members. Their average monthly expenditure is 600 dollars. They have a post-graduate education level and a mortgage amount of 193,000 dollars. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
+Based on this information, the bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. They can also offer investment options such as fixed deposits or mutual funds to help the customer grow their wealth. The bank can also provide mortgage refinancing options to help the customer reduce their mortgage amount and save on interest. Additionally, the bank can offer credit counseling services to help the customer understand the benefits of having a credit card and how to use it responsibly. The bank can also offer online banking tutorials to help the customer understand the convenience and security of online banking. By understanding the customer's financial habits and needs, the bank can offer tailored services to improve their overall banking experience.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -559,6 +669,19 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is likely to be a middle-aged individual with a stable income and a small family. They have been associated with the bank for a long time, indicating a sense of loyalty and trust towards the bank. The fact that they have a higher education level also suggests that they may have a good understanding of financial products and services.
+Some additional services that the bank can offer to this customer are:
+1. Retirement planning: As the person is approaching their 50s, the bank can offer retirement planning services to help them secure their financial future.
+2. Investment options: With a stable income and no mortgage, the person may be interested in exploring investment options to grow their wealth. The bank can offer various investment products such as mutual funds, stocks, and bonds.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
+4. Personalized financial advice: The bank can offer personalized financial advice to help the person manage their finances better and achieve their financial goals.
+5. Credit score monitoring: Since the person does not have a credit card, the bank can offer credit score monitoring services to help them understand their creditworthiness and improve their credit score.
+Overall, the bank can use the information from the ML model to understand the customer's needs and preferences and offer personalized services to enhance their banking experience.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -570,6 +693,20 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 42-year-old with a long-standing relationship with the bank, having been a customer for 18 years. They have a high income of $141,000 and a small family of three members. Their average monthly expenditure is relatively low at $5,000. They have a post-graduate education level and do not have a mortgage. They have a security account, a CDAccount, and have opted for online banking.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: With a high income and a post-graduate education, the bank can offer personalized financial planning services to help the customer make the most of their money. This can include investment advice, retirement planning, and tax planning.
+2. Premium credit card: Since the customer has not opted for a credit card yet, the bank can offer a premium credit card with exclusive benefits and rewards tailored to their lifestyle and spending habits.
+3. Family banking services: With a small family, the bank can offer family banking services such as joint accounts, family budgeting tools, and special offers for family members.
+4. Education loans: As the customer has a post-graduate education level, the bank can offer education loans for their children's higher education, helping them achieve their academic goals.
+5. Wealth management services: With a high income and a long-standing relationship with the bank, the customer may have accumulated significant wealth. The bank can offer wealth management services to help them manage and grow their assets.
+6. Personalized customer service: With the customer's preference for online banking, the bank can offer personalized customer service through their online platform, providing quick and efficient assistance for any queries or concerns.
+Overall, by offering personalized and tailored services, the bank can better understand the customer's needs and build a stronger relationship with them. This can lead to increased customer satisfaction and loyalty, ultimately benefiting the bank in the long run.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -581,6 +718,17 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, we can infer that this person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of $60,000 per year and a family of 3 members. Their average monthly expenditure is $2,300 and they have a higher secondary education level.
+Since the ML model has predicted that this person might opt for a credit card, the bank can offer them personalized credit card options based on their income and expenditure patterns. They can also offer them a higher credit limit or rewards program to attract them towards the credit card.
+Additionally, the bank can also offer investment options such as a fixed deposit or mutual funds to help them grow their savings. They can also provide financial planning services to help the customer manage their income and expenses effectively.
+Since the person has a CDAccount and has not opted for online banking, the bank can offer them a demo of their online banking services and encourage them to use it for convenience and security purposes. They can also offer them a security account to protect their assets and provide them with a sense of security.
+Based on the person's education level and income, the bank can also offer them loan options for higher education or home loans. They can also provide them with insurance options to secure their family's future.
+Overall, the bank can use the ML model's prediction to understand the customer's needs and preferences and offer them personalized services to enhance their banking experience. This will also help the bank to build a strong relationship with the customer and increase their loyalty towards the bank.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -591,6 +739,15 @@
       </c>
       <c r="C14" t="n">
         <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, we can infer that this person is in their late thirties, has been associated with the bank for 14 years, has a moderate income of $43,000, a small family of 3 members, and a low average monthly expenditure of $700. They have completed their graduation and do not have a mortgage. They do not have a security account but have opted for a CDAccount and online banking. However, they have not yet opted for a credit card.
+To better understand this customer, the bank can offer services such as financial planning and investment advice, as they have a moderate income and have opted for a CDAccount. The bank can also offer credit counseling services to help them understand the benefits of having a credit card and how to manage it responsibly. Additionally, the bank can offer personalized credit card recommendations based on the customer's spending habits and financial goals.
+Furthermore, the bank can also offer loyalty programs and rewards for using their credit card, which can incentivize the customer to opt for one. The bank can also provide educational resources and workshops on financial management and budgeting to help the customer make informed decisions about their finances.
+Overall, the bank can use the information from the ML model to offer personalized and targeted services to this customer, which can help build a stronger relationship and increase customer satisfaction. </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/credit_card_accepted.xlsx
+++ b/output/credit_card_accepted.xlsx
@@ -468,16 +468,12 @@
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 45 years old and has been associated with the bank for 19 years. They have an income of 34,000 in thousands and a family of 3 members. Their average monthly expenditure is 1,500 in thousands. They have a higher secondary education level and do not have a mortgage amount. They have a security account, CDAccount, and have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
-2. Credit counseling: Since the customer does not have a credit card, the bank can offer credit counseling services to educate them about the benefits of having a credit card and how to use it responsibly.
-3. Savings and investment options: The bank can offer various savings and investment options to help the customer grow their wealth and achieve their financial goals.
-4. Family banking services: As the customer has a family of 3 members, the bank can offer family banking services such as joint accounts, family insurance plans, and education loans for their children.
-5. Online banking and mobile app: The bank can encourage the customer to opt for online banking and use their mobile app for convenient and secure banking services.
-6. Loyalty programs: As the customer has been associated with the bank for 19 years, the bank can offer loyalty programs and rewards to show appreciation and retain their loyalty.
-7. Financial education: The bank can conduct financial education workshops or webinars to educate the customer about various financial products and services, budgeting, and financial planning.
-Overall, by offering personalized and relevant services, the bank can better understand the customer and build a long-term relationship with them. </t>
+Based on the information provided, the person is a 45-year-old with a long-standing relationship with the bank of 19 years. They have a moderate income of 34,000 in thousands and a small family of 3 members. Their average monthly expenditure is 1,500 in thousands, indicating that they have a good financial management. They have a higher secondary education level and do not have any mortgage amount.
+The person also has a security account and a CDAccount, indicating that they are interested in investing and saving money. However, they have not opted for online banking or a credit card yet.
+Based on this information, the bank can offer the person personalized investment and savings plans, such as fixed deposits or mutual funds, to help them grow their wealth. They can also offer financial planning services to help the person manage their income and expenses effectively.
+Since the person has not opted for online banking or a credit card, the bank can offer them incentives or rewards for signing up for these services. This can include cashback or discounts on transactions made through online banking or a credit card.
+Additionally, the bank can also offer the person financial education and guidance on how to use credit cards responsibly and the benefits of online banking. This can help the person understand the value of these services and potentially increase their usage in the future.
+Overall, the bank can use the ML model's prediction to offer personalized and relevant services to the person, while also helping them understand the benefits and importance of various banking services.</t>
         </is>
       </c>
     </row>
@@ -494,15 +490,16 @@
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 per year and have a total of 1 family member. Their average monthly expenditure is 2,700. They have completed graduation (education level 2) and do not have a mortgage. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
+Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 and a total of 1 family member. Their average monthly expenditure is 2,700. They have a higher secondary education level (1) and have opted for a CDAccount (1) but do not have a security account (0), online banking (0), or a credit card (0).
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: Since the person has been associated with the bank for 9 years and has a stable income, the bank can offer personalized financial planning services to help them achieve their financial goals.
-2. Investment options: With a CDAccount, it can be assumed that the person is interested in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
-3. Savings and budgeting tools: The person's average monthly expenditure is 2,700, which indicates that they may need help with budgeting and saving. The bank can offer tools and resources to help the customer track their expenses and save more effectively.
-4. Credit card education: Since the person has not opted for a credit card, the bank can offer educational resources and guidance on how to use credit cards responsibly and the benefits of having one.
-5. Online banking and mobile app: As the person has not opted for online banking, the bank can promote the convenience and security of online banking and encourage the customer to sign up for it. This will also give the bank more insights into the customer's spending habits and preferences.
-6. Family banking services: With only one family member, the bank can offer family banking services such as joint accounts, financial planning for the family, and special offers for family members.
-Overall, the bank can use the information from the ML model to understand the customer's financial behavior and offer personalized services to cater to their needs and preferences. This will not only help the customer but also strengthen the relationship between the bank and the customer.</t>
+1. Personalized financial planning: With a higher income and a family member, the bank can offer personalized financial planning services to help the customer manage their finances better and achieve their financial goals.
+2. Investment options: Since the customer has opted for a CDAccount, the bank can offer investment options such as fixed deposits, mutual funds, and other investment products to help the customer grow their wealth.
+3. Credit card options: Since the ML model predicted that the customer might opt for a credit card, the bank can offer various credit card options with attractive rewards and benefits to suit the customer's needs and spending habits.
+4. Online banking and mobile app: The customer has not opted for online banking, but the bank can encourage them to use the bank's online banking and mobile app services for convenience and easy access to their accounts.
+5. Education loans: As the customer has a graduation degree, the bank can offer education loans for higher studies to the customer or their family member.
+6. Retirement planning: With a stable income and a long association with the bank, the customer can be offered retirement planning services to help them plan for their future and ensure a comfortable retirement.
+7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+By offering these services, the bank can gain a better understanding of the customer's financial needs and preferences, and build a long-term relationship with them. This will also help the bank to cater to the customer's needs effectively and increase customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -519,14 +516,16 @@
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 37-year-old individual who has been associated with the bank for 13 years. They have an income of $29,000 per year and a family of four members. Their average monthly expenditure is $400 and they have a graduation degree. They have a mortgage amount of $155 and do not have a security account. However, they do have a CDAccount and have opted for online banking. The ML model has predicted that this person might opt for a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
-1. Personalized Credit Card Offerings: The bank can offer personalized credit card options based on the customer's income, expenditure, and credit history. This will help the customer choose a credit card that best suits their needs and financial situation.
-2. Financial Planning Services: As the customer has a family and a mortgage, the bank can offer financial planning services to help them manage their finances better. This can include budgeting, investment advice, and retirement planning.
-3. Education Loan Services: As the customer has a graduation degree, the bank can offer education loan services for their family members who may want to pursue higher education. This will help the customer and their family members achieve their educational goals without worrying about the financial burden.
-4. Online Banking Education: Since the customer has opted for online banking, the bank can offer educational resources and tutorials to help them make the most of their online banking experience. This can include tips on how to use online banking efficiently and securely.
-5. Credit Score Monitoring: The bank can offer credit score monitoring services to help the customer keep track of their credit score and take necessary steps to improve it. This will also help the bank understand the customer's creditworthiness and offer them better financial products in the future.
-Overall, by offering personalized and relevant services, the bank can better understand the customer's needs and build a strong and long-lasting relationship with them. </t>
+Based on the information provided, the person is 37 years old and has been associated with the bank for 13 years. They have an income of 29,000 dollars per year and a family of 4 members. Their average monthly expenditure is 400 dollars. They have a graduation degree (education level 2) and a mortgage amount of 155 dollars. They do not have a security account but have opted for a CDAccount and online banking. However, they have not yet opted for a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment advice, and retirement planning.
+2. Family banking services: As the customer has a family of 4 members, the bank can offer family banking services such as joint accounts, family credit cards, and special offers for family members.
+3. Credit card options: Since the ML model predicted that the customer might opt for a credit card, the bank can offer various credit card options with different benefits and rewards to suit the customer's needs.
+4. Mortgage assistance: The bank can offer mortgage assistance to help the customer manage their mortgage payments effectively. This can include refinancing options, lower interest rates, and flexible payment plans.
+5. Education loans: As the customer has a graduation degree, the bank can offer education loans for higher studies or for their family members' education.
+6. Online financial management tools: Since the customer has opted for online banking, the bank can offer online financial management tools such as budgeting apps, expense trackers, and investment calculators to help the customer manage their finances conveniently.
+7. Special offers and rewards: The bank can offer special offers and rewards to the customer based on their spending patterns and financial behavior. This can include cashback, discounts, and loyalty programs.
+By offering these services, the bank can not only cater to the customer's current needs but also gain a better understanding of their financial behavior and preferences, which can help in building a long-term relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -543,9 +542,19 @@
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 35-year-old with a long-standing relationship with the bank of 10 years. They have a high income of 81,000 per year and a small family of 3 members. Their average monthly expenditure is relatively low at 600, indicating good financial management skills. They have a decent education level with a graduation degree. 
-The person also has a mortgage amount of 104, suggesting they may have a stable financial situation and are capable of taking on loans. They do not have a security account, which could indicate a lower risk tolerance. However, they do have a CDAccount and have opted for online banking, indicating they are comfortable with technology and may be open to new banking services. 
-Based on this information, the bank can offer services such as investment options, retirement planning, and financial advice to help the person grow their wealth. They can also offer credit card options with attractive rewards and benefits to entice the person to opt for one. Additionally, the bank can provide personalized financial planning services to help the person achieve their financial goals.</t>
+Based on the information provided, the person is 35 years old and has been associated with the bank for 10 years. They have an income of 81,000 per month and a family of 3 members. Their average monthly expenditure is 600 and they have a graduation degree.
+Some additional services that the bank can offer to this customer are:
+1. Personalized financial planning and investment advice based on their income and family size.
+2. Insurance products such as life insurance, health insurance, and property insurance to protect their assets and family.
+3. Retirement planning services to help them save for their future.
+4. Education loan options for their children's higher education.
+5. Online budgeting and expense tracking tools to help them manage their finances effectively.
+6. Credit score monitoring and improvement services to help them maintain a good credit score.
+7. Special offers and discounts on credit card and loan products for loyal customers like them.
+8. Investment opportunities in mutual funds, stocks, and other financial instruments to help them grow their wealth.
+9. Personalized customer service and support to address any queries or concerns they may have.
+10. Educational resources and workshops on financial literacy and money management to help them make informed financial decisions.
+By offering these services, the bank can not only cater to the customer's financial needs but also build a strong and long-lasting relationship with them. This will also help the bank understand the customer better and provide them with more personalized and relevant services in the future.</t>
         </is>
       </c>
     </row>
@@ -562,16 +571,16 @@
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have an income of 105,000 per year and a family of 4 members. Their average monthly expenditure is 2,400. They have a post-graduate education level and do not have any mortgage amount. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have an income of $105,000 per year and a family of 4 members. Their average monthly expenditure is $2,400. They have a post-graduate education level and do not have a mortgage. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Retirement planning: As the person is nearing retirement age, the bank can offer retirement planning services to help them manage their finances and investments for a secure future.
-2. Wealth management: With a high income and a post-graduate education level, the person may have significant assets that require professional management. The bank can offer wealth management services to help them grow and protect their wealth.
-3. Family financial planning: With a family of 4 members, the bank can offer financial planning services to help the customer manage their family's expenses and plan for their future needs.
-4. Investment options: As the person has a CDAccount, the bank can offer them various investment options such as fixed deposits, mutual funds, and other investment products to help them grow their savings.
-5. Credit card services: Although the person has not opted for a credit card, the bank can offer them credit card services with attractive rewards and benefits to suit their lifestyle and spending habits.
-6. Online banking: The person has not opted for online banking, but the bank can offer them this service to make their banking experience more convenient and efficient.
-7. Personalized financial advice: With the help of the ML model, the bank can offer personalized financial advice to the customer based on their spending patterns, income, and other factors. This can help the customer make informed financial decisions.
-Overall, by offering these services, the bank can gain a better understanding of the customer's needs and preferences and build a long-term relationship with them. </t>
+1. Retirement planning: As the person is 65 years old, the bank can offer retirement planning services to help them manage their finances and investments for their post-retirement years.
+2. Wealth management: With a high income and a long association with the bank, the person may have accumulated a significant amount of wealth. The bank can offer personalized wealth management services to help them grow and protect their assets.
+3. Family financial planning: With a family of 4 members, the bank can offer financial planning services to help the person manage their family's finances and plan for their future needs.
+4. Investment opportunities: As the person has a CDAccount, they may be interested in exploring other investment opportunities. The bank can offer a range of investment options such as mutual funds, stocks, and bonds to help the person diversify their portfolio.
+5. Credit card options: Although the person has not opted for a credit card, the bank can offer them various credit card options that suit their needs and lifestyle. This can help the bank understand their spending patterns and offer personalized services.
+6. Online banking: As the person has not opted for online banking, the bank can educate them about the benefits of using net banking and help them set up their account. This can also help the bank gather more data about the person's financial behavior and offer personalized services.
+7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and home insurance to help the person protect their assets and secure their family's future.
+By offering these services, the bank can gain a better understanding of the customer's financial needs and preferences, and tailor their services accordingly. This can also help the bank build a long-term relationship with the customer and improve customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -588,13 +597,15 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank (23 years). They have a relatively high income of 114,000 per year and a small family of two members. Their average monthly expenditure is 3,800, indicating that they have a good financial standing.
-The person has a high level of education, with a post-graduation degree. This suggests that they are well-educated and may have a good understanding of financial services.
-They do not have a mortgage amount, indicating that they may own their own home or have paid off their mortgage. This could suggest that they have a stable financial situation.
-The person has a security account and a CDAccount, indicating that they are interested in investing and saving money. This could be a potential opportunity for the bank to offer investment services or financial planning advice.
-However, the person has not opted for online banking or a credit card. This could suggest that they are not comfortable with technology or prefer traditional banking methods. The bank could offer personalized assistance and education on the benefits of online banking and credit cards to help the customer understand and utilize these services.
-Based on the person's profile, the bank could also offer services such as retirement planning, wealth management, and insurance products. They could also provide personalized financial advice and assistance in achieving their financial goals.
-Overall, the person seems to be a financially stable and educated individual who is interested in investing and saving money. The bank can use this information to offer personalized services and help the customer understand and utilize various financial products. </t>
+Based on the information provided, the person is 48 years old and has been associated with the bank for 23 years. They have an income of 114,000 per year and a family of two members. Their average monthly expenditure is 3,800. They have a post-graduate education level and do not have a mortgage. They have a security account and a CDAccount. However, they have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: Since the person has a high income and a post-graduate education, the bank can offer personalized financial planning services to help them make informed decisions about their investments and savings.
+2. Credit card options: Since the ML model predicted that this person might opt for a credit card, the bank can offer various credit card options with attractive rewards and benefits to suit their spending habits and lifestyle.
+3. Online banking and mobile app: As the person has not opted for online banking, the bank can educate them about the convenience and security of online banking and offer them a user-friendly mobile app for easy access to their accounts.
+4. Investment opportunities: With a high income and a long association with the bank, the person may be interested in exploring investment opportunities. The bank can offer them various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+5. Retirement planning: As the person is approaching their retirement age, the bank can offer retirement planning services to help them secure their financial future.
+6. Insurance products: The bank can also offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
+By offering these services, the bank can gain a better understanding of the customer's financial goals and needs and build a long-term relationship with them. Additionally, the bank can also use the ML model to identify other potential customers who may benefit from these services and target them with personalized offers.</t>
         </is>
       </c>
     </row>
@@ -611,15 +622,13 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 38 years old and has been associated with the bank for 14 years. They have a high income of 130,000 and a family of four. Their average monthly expenditure is 4,700. They have a post-graduate education level and a mortgage amount of 134. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to this customer:
-1. Personalized financial planning: With a high income and a family to support, the bank can offer personalized financial planning services to help the customer manage their finances better and achieve their financial goals.
-2. Mortgage refinancing: The customer has a mortgage amount of 134, which indicates that they may be interested in refinancing their mortgage to get better interest rates or lower monthly payments. The bank can offer this service to the customer.
-3. Investment options: Since the customer has a CDAccount, they may be interested in exploring other investment options. The bank can offer various investment products such as mutual funds, stocks, and bonds to help the customer diversify their portfolio and grow their wealth.
-4. Credit card options: Although the customer has not opted for a credit card, the bank can offer them various credit card options that suit their needs and lifestyle. This can help the bank increase their customer base and also provide the customer with a convenient mode of payment.
-5. Online banking and mobile app: The customer has not opted for online banking, but the bank can encourage them to use their online and mobile banking services. This will not only make banking more convenient for the customer but also help the bank gather more data on their spending habits and preferences.
-6. Rewards and loyalty programs: The bank can offer rewards and loyalty programs to the customer for using their services. This will not only incentivize the customer to use the bank's services more but also help the bank understand their preferences and spending patterns.
-Overall, by offering personalized and tailored services, the bank can better understand and cater to this customer's needs and preferences, thereby building a strong and long-lasting relationship with them.</t>
+Based on the information provided, the person is 38 years old with a long-standing relationship with the bank of 14 years. They have a high income of 130,000 and a family of four, indicating a stable financial background. Their average monthly expenditure is relatively low at 4,700, suggesting they are financially responsible.
+The person has a high level of education, with a post-graduation degree, indicating they may have a good understanding of financial products and services. They also have a mortgage amount of 134, indicating they may have a property and are likely to have a need for financial services related to homeownership.
+The person does not have a security account, which could suggest they may not have significant investments or assets. However, they do have a CDAccount, indicating they may be interested in long-term savings and investment options.
+The person has not opted for online banking, which could suggest they may prefer traditional banking methods. This could be an opportunity for the bank to offer them personalized assistance and guidance in managing their finances.
+Since the ML model has predicted that this person may opt for a credit card, the bank could offer them a variety of credit card options with attractive rewards and benefits. They could also offer financial planning and investment services to help the person grow their wealth and achieve their financial goals.
+Additionally, the bank could offer personalized financial advice and education to help the person make informed decisions about their finances. This could include budgeting, savings, and investment strategies tailored to their specific needs and goals.
+Overall, the bank could use the information from the ML model to offer personalized and targeted services to this customer, building a strong and long-lasting relationship with them.</t>
         </is>
       </c>
     </row>
@@ -636,8 +645,14 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 44-year-old with a long-standing relationship with the bank, having been a customer for 18 years. They have a moderate income of $43,000 per year and a small family of two members. Their average monthly expenditure is relatively low at $700. They have a higher secondary education level and do not have any outstanding mortgage amount. However, they do have a security account and a CDAccount with the bank.
-Since the ML model has predicted that this person is likely to opt for a credit card, the bank can offer them personalized credit card options based on their income and spending habits. They can also offer them financial planning and investment services, given their long-standing relationship with the bank and their CDAccount. Additionally, the bank can provide them with online banking services and encourage them to opt for net banking, as they do not currently have an online account. This will not only make banking more convenient for the customer but also help the bank gather more data on their spending patterns and offer them more personalized services in the future. The bank can also offer them rewards and loyalty programs for using their credit card and other services, to further incentivize them to continue their relationship with the bank.</t>
+Based on the information provided, the person is a 44-year-old with a long-standing relationship with the bank of 18 years. They have a moderate income of $43,000 and a small family of two members. Their average monthly expenditure is low at $700. They have a higher secondary education level and a mortgage amount of $163. They also have a security account and a CDAccount with the bank.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Financial Planning Services: As the person is in their mid-40s, they may be looking for ways to plan for their retirement or save for their children's education. The bank can offer financial planning services to help them achieve their long-term financial goals.
+2. Investment Opportunities: With a moderate income and a security account, the person may be interested in exploring investment opportunities. The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+3. Credit Score Monitoring: Since the person does not have a credit card, the bank can offer credit score monitoring services to help them understand their creditworthiness and improve their credit score. This can also help the person in the future if they decide to apply for a credit card.
+4. Online Banking and Mobile App: As the person has not opted for net banking, the bank can promote its online banking and mobile app services to make banking more convenient for the customer. This can also help the bank in reducing its operational costs.
+5. Personalized Offers: Based on the customer's spending patterns and financial goals, the bank can offer personalized offers and discounts on various products and services. This can help in building a stronger relationship with the customer and increasing their loyalty towards the bank.
+Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and build a long-term relationship with the customer. </t>
         </is>
       </c>
     </row>
@@ -654,8 +669,9 @@
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 53-year-old individual who has been associated with the bank for 28 years. They have an income of 41,000 dollars per year and a family of two members. Their average monthly expenditure is 600 dollars. They have a post-graduate education level and a mortgage amount of 193,000 dollars. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
-Based on this information, the bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. They can also offer investment options such as fixed deposits or mutual funds to help the customer grow their wealth. The bank can also provide mortgage refinancing options to help the customer reduce their mortgage amount and save on interest. Additionally, the bank can offer credit counseling services to help the customer understand the benefits of having a credit card and how to use it responsibly. The bank can also offer online banking tutorials to help the customer understand the convenience and security of online banking. By understanding the customer's financial habits and needs, the bank can offer tailored services to improve their overall banking experience.</t>
+Based on the information provided, we can infer that this person is a middle-aged individual with a long-standing relationship with the bank. They have a relatively high income of 41,000 dollars and a small family of two members. Their education level is post-graduation, indicating a higher level of financial literacy and potentially a higher income. 
+The fact that the person has a mortgage amount of 193 suggests that they may have a stable financial situation and are able to make large investments. However, the lack of a security account and online banking suggests that they may not be as tech-savvy or comfortable with online transactions. 
+Since the ML model predicted that this person may opt for a credit card, the bank can offer them services such as credit card rewards programs, personalized credit card offers based on their spending habits, and financial planning services to help them manage their income and expenses effectively. The bank can also offer them educational resources on how to use online banking and security measures to protect their accounts. Additionally, the bank can provide them with investment opportunities such as fixed deposits or mutual funds to help them grow their wealth.</t>
         </is>
       </c>
     </row>
@@ -672,14 +688,8 @@
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is likely to be a middle-aged individual with a stable income and a small family. They have been associated with the bank for a long time, indicating a sense of loyalty and trust towards the bank. The fact that they have a higher education level also suggests that they may have a good understanding of financial products and services.
-Some additional services that the bank can offer to this customer are:
-1. Retirement planning: As the person is approaching their 50s, the bank can offer retirement planning services to help them secure their financial future.
-2. Investment options: With a stable income and no mortgage, the person may be interested in exploring investment options to grow their wealth. The bank can offer various investment products such as mutual funds, stocks, and bonds.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
-4. Personalized financial advice: The bank can offer personalized financial advice to help the person manage their finances better and achieve their financial goals.
-5. Credit score monitoring: Since the person does not have a credit card, the bank can offer credit score monitoring services to help them understand their creditworthiness and improve their credit score.
-Overall, the bank can use the information from the ML model to understand the customer's needs and preferences and offer personalized services to enhance their banking experience.</t>
+Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank, having been associated with them for 24 years. They have a high income of 81,000 in thousands and a small family of 3 members. Their average monthly expenditure is relatively low at 0.7 in thousands. They have a higher secondary education level and do not have any mortgage amount. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
+Based on this information, the bank can offer personalized financial planning services to help the customer manage their high income and plan for their future. They can also offer investment options, such as mutual funds or stocks, to help the customer grow their wealth. Additionally, the bank can offer credit counseling services to help the customer understand the benefits and responsible use of credit cards. They can also offer online banking tutorials to help the customer understand the convenience and security of online banking.</t>
         </is>
       </c>
     </row>
@@ -696,15 +706,14 @@
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 42-year-old with a long-standing relationship with the bank, having been a customer for 18 years. They have a high income of $141,000 and a small family of three members. Their average monthly expenditure is relatively low at $5,000. They have a post-graduate education level and do not have a mortgage. They have a security account, a CDAccount, and have opted for online banking.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: With a high income and a post-graduate education, the bank can offer personalized financial planning services to help the customer make the most of their money. This can include investment advice, retirement planning, and tax planning.
-2. Premium credit card: Since the customer has not opted for a credit card yet, the bank can offer a premium credit card with exclusive benefits and rewards tailored to their lifestyle and spending habits.
-3. Family banking services: With a small family, the bank can offer family banking services such as joint accounts, family budgeting tools, and special offers for family members.
-4. Education loans: As the customer has a post-graduate education level, the bank can offer education loans for their children's higher education, helping them achieve their academic goals.
-5. Wealth management services: With a high income and a long-standing relationship with the bank, the customer may have accumulated significant wealth. The bank can offer wealth management services to help them manage and grow their assets.
-6. Personalized customer service: With the customer's preference for online banking, the bank can offer personalized customer service through their online platform, providing quick and efficient assistance for any queries or concerns.
-Overall, by offering personalized and tailored services, the bank can better understand the customer's needs and build a stronger relationship with them. This can lead to increased customer satisfaction and loyalty, ultimately benefiting the bank in the long run.</t>
+Based on the information provided, the person is a 42-year-old with a long-standing relationship with the bank (18 years). They have a high income of $141,000 and a small family of 3 members. Their average monthly expenditure is relatively low at $5,000. They have a high level of education, with a post-graduate degree. They do not have a mortgage and have a security account, CDAccount, and have opted for online banking.
+Based on this information, the bank can offer the following services to better understand and cater to this customer:
+1. Personalized financial planning: With a high income and a post-graduate degree, this customer is likely to have complex financial needs. The bank can offer personalized financial planning services to help them manage their wealth and investments effectively.
+2. Premium credit card: Although the customer has not opted for a credit card yet, the bank can offer a premium credit card with exclusive benefits and rewards tailored to their lifestyle and spending habits. This can entice the customer to opt for a credit card and increase their engagement with the bank.
+3. Investment opportunities: With a high income and a security account, this customer is likely to be interested in investment opportunities. The bank can offer a range of investment options, such as stocks, mutual funds, and bonds, to help the customer grow their wealth.
+4. Online financial tools: As the customer has opted for online banking, the bank can offer them access to advanced financial tools and resources. This can help the customer track their expenses, set financial goals, and make informed financial decisions.
+5. Premium banking services: With a long-standing relationship with the bank, the customer may be interested in premium banking services such as priority customer service, personalized account management, and exclusive banking privileges.
+Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and increase their engagement with the bank. </t>
         </is>
       </c>
     </row>
@@ -721,12 +730,14 @@
       <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, we can infer that this person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of $60,000 per year and a family of 3 members. Their average monthly expenditure is $2,300 and they have a higher secondary education level.
-Since the ML model has predicted that this person might opt for a credit card, the bank can offer them personalized credit card options based on their income and expenditure patterns. They can also offer them a higher credit limit or rewards program to attract them towards the credit card.
-Additionally, the bank can also offer investment options such as a fixed deposit or mutual funds to help them grow their savings. They can also provide financial planning services to help the customer manage their income and expenses effectively.
-Since the person has a CDAccount and has not opted for online banking, the bank can offer them a demo of their online banking services and encourage them to use it for convenience and security purposes. They can also offer them a security account to protect their assets and provide them with a sense of security.
-Based on the person's education level and income, the bank can also offer them loan options for higher education or home loans. They can also provide them with insurance options to secure their family's future.
-Overall, the bank can use the ML model's prediction to understand the customer's needs and preferences and offer them personalized services to enhance their banking experience. This will also help the bank to build a strong relationship with the customer and increase their loyalty towards the bank.</t>
+Based on the information provided, the person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of 60,000 in thousands and a family of 3 members. Their average monthly expenditure is 2,300 in thousands. They have a higher secondary education level and do not have a mortgage amount. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Personalized financial planning: Since the person has a stable income and a family, the bank can offer personalized financial planning services to help them manage their finances better and achieve their financial goals.
+2. Investment options: With a CDAccount, the person seems to be interested in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+3. Insurance products: As the person has a family, the bank can offer various insurance products such as life insurance, health insurance, and home insurance to provide financial security to their loved ones.
+4. Budgeting tools: The person's average monthly expenditure is 2,300 in thousands, which indicates that they may need help with budgeting. The bank can offer budgeting tools and resources to help them track their expenses and save more effectively.
+5. Credit monitoring: Since the person does not have a credit card, the bank can offer credit monitoring services to help them build a good credit score and eventually apply for a credit card in the future.
+To better understand the customer, the bank can also conduct a survey or have a one-on-one conversation with them to gather more information about their financial goals, risk appetite, and preferences. This will help the bank to offer personalized and relevant services to the customer, thereby building a stronger relationship with them.</t>
         </is>
       </c>
     </row>
@@ -743,10 +754,11 @@
       <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, we can infer that this person is in their late thirties, has been associated with the bank for 14 years, has a moderate income of $43,000, a small family of 3 members, and a low average monthly expenditure of $700. They have completed their graduation and do not have a mortgage. They do not have a security account but have opted for a CDAccount and online banking. However, they have not yet opted for a credit card.
-To better understand this customer, the bank can offer services such as financial planning and investment advice, as they have a moderate income and have opted for a CDAccount. The bank can also offer credit counseling services to help them understand the benefits of having a credit card and how to manage it responsibly. Additionally, the bank can offer personalized credit card recommendations based on the customer's spending habits and financial goals.
-Furthermore, the bank can also offer loyalty programs and rewards for using their credit card, which can incentivize the customer to opt for one. The bank can also provide educational resources and workshops on financial management and budgeting to help the customer make informed decisions about their finances.
-Overall, the bank can use the information from the ML model to offer personalized and targeted services to this customer, which can help build a stronger relationship and increase customer satisfaction. </t>
+Based on the information provided, the person is 39 years old and has been associated with the bank for 14 years. They have an income of 43,000 dollars and a family of 3 members. Their average monthly expenditure is 700 dollars and they have a graduation degree.
+The ML model has predicted that this person is likely to opt for a credit card. To better understand this customer, the bank can offer services such as financial planning and budgeting tools to help them manage their expenses and savings. The bank can also offer personalized credit card options based on the customer's spending habits and needs.
+Additionally, the bank can provide investment options such as mutual funds or stocks to help the customer grow their wealth. They can also offer insurance products to protect the customer's assets and provide financial security for their family.
+Since the customer has a CDAccount and has opted for online banking, the bank can offer them rewards and discounts for using their online services. They can also provide personalized recommendations for credit card usage and offer cashback or rewards for using the credit card for specific purchases.
+Overall, the bank can use the ML model's prediction to tailor their services and offers to better suit the customer's needs and preferences, ultimately improving their overall banking experience.</t>
         </is>
       </c>
     </row>

--- a/output/credit_card_accepted.xlsx
+++ b/output/credit_card_accepted.xlsx
@@ -468,12 +468,14 @@
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 45-year-old with a long-standing relationship with the bank of 19 years. They have a moderate income of 34,000 in thousands and a small family of 3 members. Their average monthly expenditure is 1,500 in thousands, indicating that they have a good financial management. They have a higher secondary education level and do not have any mortgage amount.
-The person also has a security account and a CDAccount, indicating that they are interested in investing and saving money. However, they have not opted for online banking or a credit card yet.
-Based on this information, the bank can offer the person personalized investment and savings plans, such as fixed deposits or mutual funds, to help them grow their wealth. They can also offer financial planning services to help the person manage their income and expenses effectively.
-Since the person has not opted for online banking or a credit card, the bank can offer them incentives or rewards for signing up for these services. This can include cashback or discounts on transactions made through online banking or a credit card.
-Additionally, the bank can also offer the person financial education and guidance on how to use credit cards responsibly and the benefits of online banking. This can help the person understand the value of these services and potentially increase their usage in the future.
-Overall, the bank can use the ML model's prediction to offer personalized and relevant services to the person, while also helping them understand the benefits and importance of various banking services.</t>
+Based on the information provided, the person is a 45-year-old with a long-standing relationship with the bank of 19 years. They have a moderate income of 34,000 in thousands and a family of three. Their average monthly expenditure is relatively low at 1,500 in thousands. They have a higher secondary education level and do not have a mortgage. However, they do have a security account, CDAccount, and do not use online banking or have a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Financial Planning Services: As the person has a moderate income and a family to support, the bank can offer financial planning services to help them manage their finances better. This can include budgeting, investment advice, and retirement planning.
+2. Credit Counseling: Since the person does not have a credit card, the bank can offer credit counseling services to educate them about the benefits and responsible use of credit. This can also help the person build a good credit score, which can be beneficial in the future.
+3. Online Banking Education: As the person has not opted for online banking, the bank can offer educational resources and training to help them understand the convenience and security of online banking. This can also help the bank promote its online services.
+4. Family Banking Services: As the person has a family, the bank can offer family banking services, such as joint accounts and financial planning for the whole family. This can help the bank build a long-term relationship with the customer and cater to their family's financial needs.
+5. Personalized Credit Card Offer: Based on the ML model's prediction, the bank can offer a personalized credit card offer to the customer, highlighting the benefits and features that would be most relevant to them. This can help the bank increase its credit card customer base and cater to the customer's needs.
+Overall, by offering these services, the bank can better understand the customer's financial needs and build a strong relationship with them. This can also help the bank increase its customer base and revenue.</t>
         </is>
       </c>
     </row>
@@ -492,14 +494,14 @@
           <t xml:space="preserve">
 Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 and a total of 1 family member. Their average monthly expenditure is 2,700. They have a higher secondary education level (1) and have opted for a CDAccount (1) but do not have a security account (0), online banking (0), or a credit card (0).
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: With a higher income and a family member, the bank can offer personalized financial planning services to help the customer manage their finances better and achieve their financial goals.
-2. Investment options: Since the customer has opted for a CDAccount, the bank can offer investment options such as fixed deposits, mutual funds, and other investment products to help the customer grow their wealth.
-3. Credit card options: Since the ML model predicted that the customer might opt for a credit card, the bank can offer various credit card options with attractive rewards and benefits to suit the customer's needs and spending habits.
-4. Online banking and mobile app: The customer has not opted for online banking, but the bank can encourage them to use the bank's online banking and mobile app services for convenience and easy access to their accounts.
-5. Education loans: As the customer has a graduation degree, the bank can offer education loans for higher studies to the customer or their family member.
-6. Retirement planning: With a stable income and a long association with the bank, the customer can be offered retirement planning services to help them plan for their future and ensure a comfortable retirement.
-7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-By offering these services, the bank can gain a better understanding of the customer's financial needs and preferences, and build a long-term relationship with them. This will also help the bank to cater to the customer's needs effectively and increase customer satisfaction.</t>
+1. Personalized financial planning: Since the person has a higher income and a family member, the bank can offer personalized financial planning services to help them manage their finances effectively.
+2. Investment options: With a CDAccount, the person has shown an interest in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+3. Credit card options: Since the ML model predicted that the person might opt for a credit card, the bank can offer them different credit card options with attractive rewards and benefits to suit their needs.
+4. Education loans: As the person has a graduation degree, the bank can offer them education loans for higher studies or for their family member's education.
+5. Retirement planning: With a long association with the bank, the person may be interested in planning for their retirement. The bank can offer retirement planning services and products to help them secure their future.
+6. Online banking and mobile app: Although the person has not opted for online banking, the bank can encourage them to use their online and mobile banking services for convenience and ease of banking.
+7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
+By offering these services, the bank can gain a better understanding of the customer's needs and preferences, and build a strong and long-lasting relationship with them.</t>
         </is>
       </c>
     </row>
@@ -516,16 +518,15 @@
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 37 years old and has been associated with the bank for 13 years. They have an income of 29,000 dollars per year and a family of 4 members. Their average monthly expenditure is 400 dollars. They have a graduation degree (education level 2) and a mortgage amount of 155 dollars. They do not have a security account but have opted for a CDAccount and online banking. However, they have not yet opted for a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment advice, and retirement planning.
-2. Family banking services: As the customer has a family of 4 members, the bank can offer family banking services such as joint accounts, family credit cards, and special offers for family members.
-3. Credit card options: Since the ML model predicted that the customer might opt for a credit card, the bank can offer various credit card options with different benefits and rewards to suit the customer's needs.
-4. Mortgage assistance: The bank can offer mortgage assistance to help the customer manage their mortgage payments effectively. This can include refinancing options, lower interest rates, and flexible payment plans.
-5. Education loans: As the customer has a graduation degree, the bank can offer education loans for higher studies or for their family members' education.
-6. Online financial management tools: Since the customer has opted for online banking, the bank can offer online financial management tools such as budgeting apps, expense trackers, and investment calculators to help the customer manage their finances conveniently.
-7. Special offers and rewards: The bank can offer special offers and rewards to the customer based on their spending patterns and financial behavior. This can include cashback, discounts, and loyalty programs.
-By offering these services, the bank can not only cater to the customer's current needs but also gain a better understanding of their financial behavior and preferences, which can help in building a long-term relationship with the customer.</t>
+Based on the information provided, the person is 37 years old and has been associated with the bank for 13 years. They have an income of 29,000 and a family of 4 members. Their average monthly expenditure is 400 and they have a graduation degree.
+Some additional services that the bank can offer to this customer are:
+1. Personalized financial planning: Based on the customer's income, expenditure, and family size, the bank can offer personalized financial planning services to help them manage their finances better.
+2. Investment options: The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+3. Insurance products: The bank can offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their future.
+5. Credit score monitoring: As the customer has opted for a credit card, the bank can offer credit score monitoring services to help them maintain a good credit score.
+6. Online financial tools: The bank can provide online tools and resources to help the customer track their expenses, create a budget, and manage their finances effectively.
+By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their financial goals and preferences. This will help the bank to provide personalized and targeted services to the customer in the future.</t>
         </is>
       </c>
     </row>
@@ -542,19 +543,12 @@
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 35 years old and has been associated with the bank for 10 years. They have an income of 81,000 per month and a family of 3 members. Their average monthly expenditure is 600 and they have a graduation degree.
-Some additional services that the bank can offer to this customer are:
-1. Personalized financial planning and investment advice based on their income and family size.
-2. Insurance products such as life insurance, health insurance, and property insurance to protect their assets and family.
-3. Retirement planning services to help them save for their future.
-4. Education loan options for their children's higher education.
-5. Online budgeting and expense tracking tools to help them manage their finances effectively.
-6. Credit score monitoring and improvement services to help them maintain a good credit score.
-7. Special offers and discounts on credit card and loan products for loyal customers like them.
-8. Investment opportunities in mutual funds, stocks, and other financial instruments to help them grow their wealth.
-9. Personalized customer service and support to address any queries or concerns they may have.
-10. Educational resources and workshops on financial literacy and money management to help them make informed financial decisions.
-By offering these services, the bank can not only cater to the customer's financial needs but also build a strong and long-lasting relationship with them. This will also help the bank understand the customer better and provide them with more personalized and relevant services in the future.</t>
+Based on the information provided, the person is 35 years old and has been associated with the bank for 10 years. They have an income of 81,000 per year and a family of 3 members. Their average monthly expenditure is relatively low at 600, indicating that they may have good financial management skills.
+The person has a moderate education level, with a graduation degree. They also have a mortgage amount of 104, which suggests that they may have a stable financial situation and are able to afford a home.
+The person does not have a security account, but they do have a CDAccount and have opted for online banking services. This indicates that they are comfortable with technology and may be open to using digital banking services.
+Since the ML model has predicted that this person may opt for a credit card, the bank can offer them a variety of credit card options based on their income and spending habits. They can also offer personalized credit card rewards and benefits that align with the person's lifestyle and interests.
+Additionally, the bank can also offer investment and savings options to help the person grow their wealth. This could include options such as fixed deposits, mutual funds, and retirement plans.
+To better understand the customer, the bank can also conduct a survey or gather feedback to understand their financial goals and preferences. This will help the bank to offer tailored services and build a stronger relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -571,16 +565,14 @@
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have an income of $105,000 per year and a family of 4 members. Their average monthly expenditure is $2,400. They have a post-graduate education level and do not have a mortgage. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Retirement planning: As the person is 65 years old, the bank can offer retirement planning services to help them manage their finances and investments for their post-retirement years.
-2. Wealth management: With a high income and a long association with the bank, the person may have accumulated a significant amount of wealth. The bank can offer personalized wealth management services to help them grow and protect their assets.
-3. Family financial planning: With a family of 4 members, the bank can offer financial planning services to help the person manage their family's finances and plan for their future needs.
-4. Investment opportunities: As the person has a CDAccount, they may be interested in exploring other investment opportunities. The bank can offer a range of investment options such as mutual funds, stocks, and bonds to help the person diversify their portfolio.
-5. Credit card options: Although the person has not opted for a credit card, the bank can offer them various credit card options that suit their needs and lifestyle. This can help the bank understand their spending patterns and offer personalized services.
-6. Online banking: As the person has not opted for online banking, the bank can educate them about the benefits of using net banking and help them set up their account. This can also help the bank gather more data about the person's financial behavior and offer personalized services.
-7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and home insurance to help the person protect their assets and secure their family's future.
-By offering these services, the bank can gain a better understanding of the customer's financial needs and preferences, and tailor their services accordingly. This can also help the bank build a long-term relationship with the customer and improve customer satisfaction.</t>
+Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have a high income of 105,000 per year and a family of four members. Their average monthly expenditure is relatively low at 2,400. They have a post-graduate education level and do not have any mortgage amount. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Retirement planning and investment options: As the person is nearing retirement age, the bank can offer personalized retirement planning services and investment options to help them secure their financial future.
+2. Wealth management services: With a high income and post-graduate education, the person may have accumulated significant wealth. The bank can offer wealth management services to help them manage and grow their assets.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and long-term care insurance to provide financial security to the person and their family.
+4. Personalized financial advice: The bank can assign a dedicated financial advisor to the person who can provide personalized financial advice based on their goals, risk tolerance, and financial situation.
+5. Estate planning services: The bank can offer estate planning services to help the person create a plan for the distribution of their assets after their passing, ensuring their family's financial stability.
+To better understand the customer, the bank can also conduct a survey or hold a focus group to gather more information about their financial goals, preferences, and needs. This will help the bank tailor their services and offerings to better meet the customer's needs and build a long-term relationship with them.</t>
         </is>
       </c>
     </row>
@@ -597,15 +589,15 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 48 years old and has been associated with the bank for 23 years. They have an income of 114,000 per year and a family of two members. Their average monthly expenditure is 3,800. They have a post-graduate education level and do not have a mortgage. They have a security account and a CDAccount. However, they have not opted for online banking or a credit card.
+Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank, having been a customer for 23 years. They have a high income of $114,000 and a small family of two members. Their average monthly expenditure is relatively low at $3,800. The person has a post-graduate education level and does not have a mortgage.
+The person also has a security account and a CDAccount, indicating that they are financially responsible and may be interested in investment opportunities. However, they have not opted for online banking or a credit card.
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: Since the person has a high income and a post-graduate education, the bank can offer personalized financial planning services to help them make informed decisions about their investments and savings.
-2. Credit card options: Since the ML model predicted that this person might opt for a credit card, the bank can offer various credit card options with attractive rewards and benefits to suit their spending habits and lifestyle.
-3. Online banking and mobile app: As the person has not opted for online banking, the bank can educate them about the convenience and security of online banking and offer them a user-friendly mobile app for easy access to their accounts.
-4. Investment opportunities: With a high income and a long association with the bank, the person may be interested in exploring investment opportunities. The bank can offer them various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-5. Retirement planning: As the person is approaching their retirement age, the bank can offer retirement planning services to help them secure their financial future.
-6. Insurance products: The bank can also offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
-By offering these services, the bank can gain a better understanding of the customer's financial goals and needs and build a long-term relationship with them. Additionally, the bank can also use the ML model to identify other potential customers who may benefit from these services and target them with personalized offers.</t>
+1. Personalized Investment Options: With a high income and a CDAccount, the person may be interested in exploring investment options. The bank can offer personalized investment plans based on the customer's risk appetite and financial goals.
+2. Online Banking and Credit Card: As the person has not opted for online banking or a credit card, the bank can offer these services and educate the customer about their benefits, such as convenience, security, and rewards.
+3. Financial Planning Services: With a high income and a small family, the person may have financial goals such as retirement planning, saving for their children's education, or buying a house. The bank can offer financial planning services to help the customer achieve these goals.
+4. Loyalty Programs: As the person has been a customer for 23 years, the bank can offer loyalty programs to reward their long-standing relationship and encourage them to use more services.
+5. Education Loan Options: As the person has a post-graduate education level, the bank can offer education loan options for their children's higher education, which can help build a stronger relationship with the customer.
+By offering these services, the bank can not only cater to the customer's needs but also gain a better understanding of their financial behavior and preferences. This can help the bank in creating targeted marketing strategies and improving customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -622,13 +614,15 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 38 years old with a long-standing relationship with the bank of 14 years. They have a high income of 130,000 and a family of four, indicating a stable financial background. Their average monthly expenditure is relatively low at 4,700, suggesting they are financially responsible.
-The person has a high level of education, with a post-graduation degree, indicating they may have a good understanding of financial products and services. They also have a mortgage amount of 134, indicating they may have a property and are likely to have a need for financial services related to homeownership.
-The person does not have a security account, which could suggest they may not have significant investments or assets. However, they do have a CDAccount, indicating they may be interested in long-term savings and investment options.
-The person has not opted for online banking, which could suggest they may prefer traditional banking methods. This could be an opportunity for the bank to offer them personalized assistance and guidance in managing their finances.
-Since the ML model has predicted that this person may opt for a credit card, the bank could offer them a variety of credit card options with attractive rewards and benefits. They could also offer financial planning and investment services to help the person grow their wealth and achieve their financial goals.
-Additionally, the bank could offer personalized financial advice and education to help the person make informed decisions about their finances. This could include budgeting, savings, and investment strategies tailored to their specific needs and goals.
-Overall, the bank could use the information from the ML model to offer personalized and targeted services to this customer, building a strong and long-lasting relationship with them.</t>
+Based on the information provided, the person is 38 years old and has been associated with the bank for 14 years. They have a high income of 130,000 and a family of 4 members. Their average monthly expenditure is 4,700 and they have a post-graduate education level.
+The ML model predicted that this person might opt for a credit card, which suggests that they have a good credit score and are financially responsible. This person may also have a stable job and a good credit history.
+Some additional services that the bank can offer to this customer are:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
+2. Investment options: Based on the customer's income and financial goals, the bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their retirement years.
+5. Credit score monitoring: The bank can offer credit score monitoring services to help the customer keep track of their credit score and take necessary steps to maintain or improve it.
+By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their financial behavior and preferences. This can help the bank in providing personalized and targeted services to the customer in the future.</t>
         </is>
       </c>
     </row>
@@ -645,14 +639,13 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 44-year-old with a long-standing relationship with the bank of 18 years. They have a moderate income of $43,000 and a small family of two members. Their average monthly expenditure is low at $700. They have a higher secondary education level and a mortgage amount of $163. They also have a security account and a CDAccount with the bank.
-Some additional services that the bank can offer to this customer based on their profile are:
-1. Financial Planning Services: As the person is in their mid-40s, they may be looking for ways to plan for their retirement or save for their children's education. The bank can offer financial planning services to help them achieve their long-term financial goals.
-2. Investment Opportunities: With a moderate income and a security account, the person may be interested in exploring investment opportunities. The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
-3. Credit Score Monitoring: Since the person does not have a credit card, the bank can offer credit score monitoring services to help them understand their creditworthiness and improve their credit score. This can also help the person in the future if they decide to apply for a credit card.
-4. Online Banking and Mobile App: As the person has not opted for net banking, the bank can promote its online banking and mobile app services to make banking more convenient for the customer. This can also help the bank in reducing its operational costs.
-5. Personalized Offers: Based on the customer's spending patterns and financial goals, the bank can offer personalized offers and discounts on various products and services. This can help in building a stronger relationship with the customer and increasing their loyalty towards the bank.
-Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and build a long-term relationship with the customer. </t>
+Based on the information provided, the person is a 44-year-old individual who has been associated with the bank for 18 years. They have an income of $43,000 per year and a family of two members. Their average monthly expenditure is $700 and they have a higher secondary education level.
+The ML model has predicted that this person is likely to opt for a credit card, which suggests that they may have a good credit score and a stable financial situation. This information can be used by the bank to offer them a variety of credit card options with attractive rewards and benefits.
+Additionally, the person also has a mortgage amount of $163, which indicates that they may be a homeowner. This information can be used by the bank to offer them home equity loans or other mortgage-related services.
+The person also has a security account and a CDAccount, which suggests that they are interested in investing and saving money. The bank can offer them investment options such as mutual funds, fixed deposits, or retirement plans.
+However, the person has not opted for online banking services, which could be an opportunity for the bank to promote their net banking services and educate the customer about the convenience and security of online banking.
+Since the person does not currently have a credit card, the bank can also offer them financial education and guidance on how to use credit cards responsibly and build a good credit score.
+Overall, the bank can use the information from the ML model to understand the customer's financial behavior and preferences, and offer them personalized services and products to meet their needs and enhance their banking experience.</t>
         </is>
       </c>
     </row>
@@ -669,9 +662,11 @@
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, we can infer that this person is a middle-aged individual with a long-standing relationship with the bank. They have a relatively high income of 41,000 dollars and a small family of two members. Their education level is post-graduation, indicating a higher level of financial literacy and potentially a higher income. 
-The fact that the person has a mortgage amount of 193 suggests that they may have a stable financial situation and are able to make large investments. However, the lack of a security account and online banking suggests that they may not be as tech-savvy or comfortable with online transactions. 
-Since the ML model predicted that this person may opt for a credit card, the bank can offer them services such as credit card rewards programs, personalized credit card offers based on their spending habits, and financial planning services to help them manage their income and expenses effectively. The bank can also offer them educational resources on how to use online banking and security measures to protect their accounts. Additionally, the bank can provide them with investment opportunities such as fixed deposits or mutual funds to help them grow their wealth.</t>
+Based on the information provided, we can infer that the person is a middle-aged individual with a stable income and a relatively small family. They have been associated with the bank for a long time, indicating a sense of loyalty and trust towards the bank. The person has a high level of education, which suggests that they may have a good understanding of financial products and services.
+Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options with attractive rewards and benefits. Additionally, the bank can also offer investment options such as fixed deposits or mutual funds, given the person's stable income and long-term relationship with the bank. As the person does not have a security account, the bank can also offer them insurance products to protect their assets and provide financial security.
+To better understand the customer, the bank can conduct a survey or use data analytics to gather more information about their spending habits, financial goals, and preferences. This can help the bank tailor their services and offers to meet the specific needs of the customer. The bank can also provide financial planning and advisory services to help the customer make informed decisions about their finances.
+Furthermore, the bank can also offer online banking and mobile banking services to make banking more convenient for the customer. This can include features such as bill payments, fund transfers, and account management, which can help the customer save time and effort.
+Overall, by understanding the customer's profile and offering personalized services, the bank can build a strong relationship with the customer and increase their satisfaction and loyalty towards the bank.</t>
         </is>
       </c>
     </row>
@@ -688,8 +683,16 @@
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank, having been associated with them for 24 years. They have a high income of 81,000 in thousands and a small family of 3 members. Their average monthly expenditure is relatively low at 0.7 in thousands. They have a higher secondary education level and do not have any mortgage amount. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
-Based on this information, the bank can offer personalized financial planning services to help the customer manage their high income and plan for their future. They can also offer investment options, such as mutual funds or stocks, to help the customer grow their wealth. Additionally, the bank can offer credit counseling services to help the customer understand the benefits and responsible use of credit cards. They can also offer online banking tutorials to help the customer understand the convenience and security of online banking.</t>
+Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 24 years. They have an income of $81,000 per year and a family of three members. Their average monthly expenditure is relatively low at $700. They have completed higher secondary education and do not have a mortgage. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Financial Planning Services: As the person is approaching retirement age, the bank can offer financial planning services to help them manage their income and expenses effectively.
+2. Investment Opportunities: With a relatively high income and no mortgage, the person may be interested in investing their money. The bank can offer investment opportunities such as mutual funds, stocks, and bonds.
+3. Credit Card Services: Since the ML model predicted that the person might opt for a credit card, the bank can offer them a credit card with attractive rewards and benefits to suit their spending habits.
+4. Online Banking: Although the person has not opted for online banking, the bank can offer them a demo and explain the benefits of managing their finances online, such as convenience, security, and real-time updates.
+5. Retirement Planning: With a long association with the bank and approaching retirement age, the person may be interested in retirement planning services. The bank can offer them retirement plans and options to secure their future.
+6. Family Banking Services: As the person has a family of three, the bank can offer family banking services such as joint accounts, children's savings accounts, and education loans.
+7. Personalized Services: The bank can use the ML model's predictions to offer personalized services to the customer, such as customized investment plans, credit card offers, and financial advice based on their spending habits and income.
+Overall, by utilizing the ML model's predictions and understanding the customer's profile, the bank can offer tailored services to cater to their needs and build a long-term relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -706,14 +709,11 @@
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 42-year-old with a long-standing relationship with the bank (18 years). They have a high income of $141,000 and a small family of 3 members. Their average monthly expenditure is relatively low at $5,000. They have a high level of education, with a post-graduate degree. They do not have a mortgage and have a security account, CDAccount, and have opted for online banking.
-Based on this information, the bank can offer the following services to better understand and cater to this customer:
-1. Personalized financial planning: With a high income and a post-graduate degree, this customer is likely to have complex financial needs. The bank can offer personalized financial planning services to help them manage their wealth and investments effectively.
-2. Premium credit card: Although the customer has not opted for a credit card yet, the bank can offer a premium credit card with exclusive benefits and rewards tailored to their lifestyle and spending habits. This can entice the customer to opt for a credit card and increase their engagement with the bank.
-3. Investment opportunities: With a high income and a security account, this customer is likely to be interested in investment opportunities. The bank can offer a range of investment options, such as stocks, mutual funds, and bonds, to help the customer grow their wealth.
-4. Online financial tools: As the customer has opted for online banking, the bank can offer them access to advanced financial tools and resources. This can help the customer track their expenses, set financial goals, and make informed financial decisions.
-5. Premium banking services: With a long-standing relationship with the bank, the customer may be interested in premium banking services such as priority customer service, personalized account management, and exclusive banking privileges.
-Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and increase their engagement with the bank. </t>
+Based on the information provided, the person is 42 years old and has been associated with the bank for 18 years. They have a high income of 141,000 per year and a small family of 3 members. Their average monthly expenditure is 5,000 and they have a post-graduate education level.
+Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options with attractive rewards and benefits. Additionally, the bank can also offer investment and wealth management services, given their high income and education level. They can also provide financial planning and advisory services to help the customer make informed decisions about their finances.
+Furthermore, the person has a security account and a CDAccount, indicating that they are interested in investing and saving. The bank can offer them various investment options such as mutual funds, stocks, and bonds. They can also provide online banking services, given that the person has opted for net banking. This can include features like bill payments, fund transfers, and online account management.
+Since the person does not currently have a credit card, the bank can also offer them financial education and guidance on how to use credit cards responsibly. This can help the customer understand the benefits and risks associated with credit cards and make informed decisions about their finances.
+Overall, the bank can use the ML model's prediction to offer personalized and relevant services to the customer, while also helping them understand their financial needs and goals. This can lead to a stronger and more long-term relationship between the customer and the bank.</t>
         </is>
       </c>
     </row>
@@ -731,13 +731,14 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, the person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of 60,000 in thousands and a family of 3 members. Their average monthly expenditure is 2,300 in thousands. They have a higher secondary education level and do not have a mortgage amount. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
-Some additional services that the bank can offer to this customer based on their profile are:
-1. Personalized financial planning: Since the person has a stable income and a family, the bank can offer personalized financial planning services to help them manage their finances better and achieve their financial goals.
-2. Investment options: With a CDAccount, the person seems to be interested in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-3. Insurance products: As the person has a family, the bank can offer various insurance products such as life insurance, health insurance, and home insurance to provide financial security to their loved ones.
-4. Budgeting tools: The person's average monthly expenditure is 2,300 in thousands, which indicates that they may need help with budgeting. The bank can offer budgeting tools and resources to help them track their expenses and save more effectively.
-5. Credit monitoring: Since the person does not have a credit card, the bank can offer credit monitoring services to help them build a good credit score and eventually apply for a credit card in the future.
-To better understand the customer, the bank can also conduct a survey or have a one-on-one conversation with them to gather more information about their financial goals, risk appetite, and preferences. This will help the bank to offer personalized and relevant services to the customer, thereby building a stronger relationship with them.</t>
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: With a stable income and family size, the bank can offer personalized financial planning services to help the customer manage their expenses and savings effectively.
+2. Investment options: As the customer has a CDAccount, the bank can offer various investment options such as fixed deposits, mutual funds, and other investment products to help the customer grow their wealth.
+3. Education loans: As the customer has a higher education level, the bank can offer education loans for their future studies or for their family members.
+4. Family banking services: With a family of 3 members, the bank can offer family banking services such as joint accounts, family insurance plans, and other services to cater to the financial needs of the entire family.
+5. Credit card options: As the customer has not opted for a credit card, the bank can offer various credit card options with attractive rewards and benefits to encourage them to opt for one.
+6. Online banking services: As the customer has not opted for online banking, the bank can educate them about the benefits of online banking and offer services such as bill payments, fund transfers, and other online transactions to make banking more convenient for them.
+Overall, the bank can use the ML model's prediction to understand the customer's financial behavior and offer personalized services to cater to their needs, thereby building a strong and long-lasting relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -754,11 +755,13 @@
       <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 39 years old and has been associated with the bank for 14 years. They have an income of 43,000 dollars and a family of 3 members. Their average monthly expenditure is 700 dollars and they have a graduation degree.
-The ML model has predicted that this person is likely to opt for a credit card. To better understand this customer, the bank can offer services such as financial planning and budgeting tools to help them manage their expenses and savings. The bank can also offer personalized credit card options based on the customer's spending habits and needs.
-Additionally, the bank can provide investment options such as mutual funds or stocks to help the customer grow their wealth. They can also offer insurance products to protect the customer's assets and provide financial security for their family.
-Since the customer has a CDAccount and has opted for online banking, the bank can offer them rewards and discounts for using their online services. They can also provide personalized recommendations for credit card usage and offer cashback or rewards for using the credit card for specific purchases.
-Overall, the bank can use the ML model's prediction to tailor their services and offers to better suit the customer's needs and preferences, ultimately improving their overall banking experience.</t>
+Based on the information provided, the person is a 39-year-old individual who has been associated with the bank for 14 years. They have an income of $43,000 per year and a family of three members. Their average monthly expenditure is $700 and they have a graduation degree.
+The ML model has predicted that this person might opt for a credit card, which indicates that they are likely to have a good credit score and financial stability. This information can be used by the bank to offer them personalized credit card options with attractive rewards and benefits.
+Additionally, the person has a mortgage amount of $153, which suggests that they own a property and have a stable source of income. The bank can offer them services such as home loans, investment options, and insurance products.
+The person does not have a security account, which means they may not have any assets to secure a loan. The bank can offer them financial planning services to help them build their assets and secure their future.
+The person has a CDAccount and has opted for online banking, indicating that they are tech-savvy and prefer convenient banking options. The bank can offer them digital banking services, such as mobile banking and online bill payments, to enhance their banking experience.
+Since the person does not currently have a credit card, the bank can offer them credit education and counseling services to help them understand the benefits and responsible usage of credit cards. This can also help the bank to build a long-term relationship with the customer.
+In conclusion, the ML model has provided valuable insights about the customer, which can help the bank to offer personalized and relevant services to meet their financial needs and preferences. By understanding the customer better, the bank can build a strong and loyal customer base.</t>
         </is>
       </c>
     </row>

--- a/output/credit_card_accepted.xlsx
+++ b/output/credit_card_accepted.xlsx
@@ -468,14 +468,16 @@
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 45-year-old with a long-standing relationship with the bank of 19 years. They have a moderate income of 34,000 in thousands and a family of three. Their average monthly expenditure is relatively low at 1,500 in thousands. They have a higher secondary education level and do not have a mortgage. However, they do have a security account, CDAccount, and do not use online banking or have a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Financial Planning Services: As the person has a moderate income and a family to support, the bank can offer financial planning services to help them manage their finances better. This can include budgeting, investment advice, and retirement planning.
-2. Credit Counseling: Since the person does not have a credit card, the bank can offer credit counseling services to educate them about the benefits and responsible use of credit. This can also help the person build a good credit score, which can be beneficial in the future.
-3. Online Banking Education: As the person has not opted for online banking, the bank can offer educational resources and training to help them understand the convenience and security of online banking. This can also help the bank promote its online services.
-4. Family Banking Services: As the person has a family, the bank can offer family banking services, such as joint accounts and financial planning for the whole family. This can help the bank build a long-term relationship with the customer and cater to their family's financial needs.
-5. Personalized Credit Card Offer: Based on the ML model's prediction, the bank can offer a personalized credit card offer to the customer, highlighting the benefits and features that would be most relevant to them. This can help the bank increase its credit card customer base and cater to the customer's needs.
-Overall, by offering these services, the bank can better understand the customer's financial needs and build a strong relationship with them. This can also help the bank increase its customer base and revenue.</t>
+Based on the information provided, the person is 45 years old and has been associated with the bank for 19 years. They have an income of 34,000 per month and a family of 3 members. Their average monthly expenditure is 1,500. They have a higher secondary education level and do not have any mortgage amount. They have a security account and a CDAccount. However, they have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to this customer:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment advice, and retirement planning.
+2. Credit card education: Since the model has predicted that this person might opt for a credit card, the bank can offer educational resources on responsible credit card usage and benefits of having a credit card.
+3. Online banking tutorials: As the customer has not opted for online banking, the bank can offer tutorials and assistance to help them understand the benefits and convenience of online banking.
+4. Family banking solutions: With a family of 3 members, the bank can offer family banking solutions such as joint accounts, family insurance plans, and savings plans to cater to the financial needs of the entire family.
+5. Loyalty programs: As the customer has been associated with the bank for 19 years, the bank can offer loyalty programs and rewards to show appreciation for their long-term relationship.
+6. Investment opportunities: With a higher income and education level, the bank can offer investment opportunities such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+7. Financial literacy workshops: The bank can organize financial literacy workshops to educate the customer on various financial topics and help them make informed decisions.
+Overall, by offering personalized and targeted services, the bank can better understand and cater to the needs of this customer and build a stronger relationship with them.</t>
         </is>
       </c>
     </row>
@@ -492,16 +494,15 @@
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 and a total of 1 family member. Their average monthly expenditure is 2,700. They have a higher secondary education level (1) and have opted for a CDAccount (1) but do not have a security account (0), online banking (0), or a credit card (0).
+Based on the information provided, the person is 35 years old and has been associated with the bank for 9 years. They have an income of 100,000 per year and have one family member. Their average monthly expenditure is 2,700. They have a graduation degree (level 2 education) and do not have a mortgage. They do not have a security account but do have a CDAccount and have not opted for online banking or a credit card.
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: Since the person has a higher income and a family member, the bank can offer personalized financial planning services to help them manage their finances effectively.
-2. Investment options: With a CDAccount, the person has shown an interest in investing. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-3. Credit card options: Since the ML model predicted that the person might opt for a credit card, the bank can offer them different credit card options with attractive rewards and benefits to suit their needs.
-4. Education loans: As the person has a graduation degree, the bank can offer them education loans for higher studies or for their family member's education.
-5. Retirement planning: With a long association with the bank, the person may be interested in planning for their retirement. The bank can offer retirement planning services and products to help them secure their future.
-6. Online banking and mobile app: Although the person has not opted for online banking, the bank can encourage them to use their online and mobile banking services for convenience and ease of banking.
-7. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
-By offering these services, the bank can gain a better understanding of the customer's needs and preferences, and build a strong and long-lasting relationship with them.</t>
+1. Personalized financial planning: With a steady income and average monthly expenditure, the bank can offer personalized financial planning services to help the customer manage their finances better and achieve their financial goals.
+2. Investment options: As the customer has a CDAccount, the bank can offer investment options such as fixed deposits, mutual funds, and other investment products to help the customer grow their savings.
+3. Credit counseling: Since the customer does not have a credit card, the bank can offer credit counseling services to educate them about the benefits and responsible use of credit cards. This can also help the customer build a good credit score.
+4. Online banking and mobile app: The bank can encourage the customer to opt for online banking and use the mobile app for convenient and secure banking services. This can also help the bank gather more data about the customer's spending habits and preferences.
+5. Rewards and loyalty programs: To incentivize the customer to opt for a credit card, the bank can offer rewards and loyalty programs that align with the customer's spending patterns and interests.
+6. Financial education workshops: As the customer has a graduation degree, the bank can offer financial education workshops on topics such as budgeting, saving, and investing to help them make informed financial decisions.
+Overall, by offering personalized and relevant services, the bank can better understand the customer and build a long-term relationship with them. This can also help the bank increase its customer base and revenue.</t>
         </is>
       </c>
     </row>
@@ -518,15 +519,16 @@
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 37 years old and has been associated with the bank for 13 years. They have an income of 29,000 and a family of 4 members. Their average monthly expenditure is 400 and they have a graduation degree.
-Some additional services that the bank can offer to this customer are:
-1. Personalized financial planning: Based on the customer's income, expenditure, and family size, the bank can offer personalized financial planning services to help them manage their finances better.
-2. Investment options: The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
-3. Insurance products: The bank can offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their future.
-5. Credit score monitoring: As the customer has opted for a credit card, the bank can offer credit score monitoring services to help them maintain a good credit score.
-6. Online financial tools: The bank can provide online tools and resources to help the customer track their expenses, create a budget, and manage their finances effectively.
-By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their financial goals and preferences. This will help the bank to provide personalized and targeted services to the customer in the future.</t>
+Based on the information provided, the person is 37 years old and has been associated with the bank for 13 years. They have an income of 29,000 in thousands and a total of 4 family members. Their average monthly expenditure is 0.4 in thousands. They have a graduation level of education (level 2) and a mortgage amount of 155. They do not have a security account (0) but have a CDAccount (1) and have opted for online banking (1). However, they do not have a credit card (0).
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: With a long association with the bank and a stable income, the person may be interested in personalized financial planning services. This can include investment advice, retirement planning, and tax planning.
+2. Family banking services: With a total of 4 family members, the bank can offer family banking services such as joint accounts, family credit cards, and special offers for family members.
+3. Education loans: As the person has a graduation level of education, they may be interested in pursuing higher education. The bank can offer education loans at competitive interest rates to help them achieve their educational goals.
+4. Mortgage refinancing: With a mortgage amount of 155, the person may be interested in refinancing their mortgage to get a better interest rate or lower monthly payments. The bank can offer mortgage refinancing services to help them save money in the long run.
+5. Credit card offers: Although the person has not opted for a credit card, the bank can offer attractive credit card offers with rewards and benefits that may entice them to opt for one.
+6. Online financial management tools: As the person has opted for online banking, the bank can offer online financial management tools such as budgeting apps, investment trackers, and expense trackers to help them manage their finances more efficiently.
+7. Personalized customer service: With the help of the ML model, the bank can understand the customer's needs and preferences better and offer personalized customer service to enhance their banking experience.
+Overall, by utilizing the ML model and the information provided, the bank can offer personalized and targeted services to the customer, which can help in building a stronger relationship and increasing customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -543,12 +545,13 @@
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 35 years old and has been associated with the bank for 10 years. They have an income of 81,000 per year and a family of 3 members. Their average monthly expenditure is relatively low at 600, indicating that they may have good financial management skills.
-The person has a moderate education level, with a graduation degree. They also have a mortgage amount of 104, which suggests that they may have a stable financial situation and are able to afford a home.
-The person does not have a security account, but they do have a CDAccount and have opted for online banking services. This indicates that they are comfortable with technology and may be open to using digital banking services.
-Since the ML model has predicted that this person may opt for a credit card, the bank can offer them a variety of credit card options based on their income and spending habits. They can also offer personalized credit card rewards and benefits that align with the person's lifestyle and interests.
-Additionally, the bank can also offer investment and savings options to help the person grow their wealth. This could include options such as fixed deposits, mutual funds, and retirement plans.
-To better understand the customer, the bank can also conduct a survey or gather feedback to understand their financial goals and preferences. This will help the bank to offer tailored services and build a stronger relationship with the customer.</t>
+Based on the information provided, the person is 35 years old and has been associated with the bank for 10 years. They have an income of 81,000 per month and a family of 3 members. Their average monthly expenditure is relatively low at 600, indicating that they may have good financial management skills.
+The person has a higher education level, with a graduation degree. This suggests that they may have a stable job and a higher income potential. They also have a mortgage amount of 104, indicating that they may have a property or are planning to purchase one.
+The person does not have a security account, which means they may not have any investments or assets that require security. However, they do have a CDAccount and have opted for online banking, indicating that they are tech-savvy and prefer convenience in their banking transactions.
+Since the ML model predicted that this person may opt for a credit card, the bank can offer them a range of credit card options based on their income and spending habits. They can also offer them personalized financial planning services to help them manage their finances better.
+Based on the person's education level and income, the bank can also offer them investment options such as mutual funds, stocks, and bonds. They can also provide them with insurance services to secure their family's financial future.
+To understand the customer better, the bank can conduct a survey or offer them a personalized financial health check-up. This will help the bank to understand their financial goals, risk appetite, and provide them with tailored services and products.
+Overall, the person seems to be financially stable and has the potential to become a valuable customer for the bank. By offering them personalized services and understanding their financial needs, the bank can build a long-term relationship with the customer and increase their customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -565,14 +568,16 @@
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have a high income of 105,000 per year and a family of four members. Their average monthly expenditure is relatively low at 2,400. They have a post-graduate education level and do not have any mortgage amount. They do not have a security account but have opted for a CDAccount. They have not opted for online banking or a credit card.
-Some additional services that the bank can offer to this customer based on their profile are:
-1. Retirement planning and investment options: As the person is nearing retirement age, the bank can offer personalized retirement planning services and investment options to help them secure their financial future.
-2. Wealth management services: With a high income and post-graduate education, the person may have accumulated significant wealth. The bank can offer wealth management services to help them manage and grow their assets.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and long-term care insurance to provide financial security to the person and their family.
-4. Personalized financial advice: The bank can assign a dedicated financial advisor to the person who can provide personalized financial advice based on their goals, risk tolerance, and financial situation.
-5. Estate planning services: The bank can offer estate planning services to help the person create a plan for the distribution of their assets after their passing, ensuring their family's financial stability.
-To better understand the customer, the bank can also conduct a survey or hold a focus group to gather more information about their financial goals, preferences, and needs. This will help the bank tailor their services and offerings to better meet the customer's needs and build a long-term relationship with them.</t>
+Based on the information provided, the person is a 65-year-old individual who has been associated with the bank for 39 years. They have an income of $105,000 per year and a family of four members. Their average monthly expenditure is $2,400. They have a post-graduate education level and do not have a mortgage. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Retirement planning: As the person is nearing retirement age, the bank can offer retirement planning services to help them manage their finances and investments for a comfortable retirement.
+2. Wealth management: With a high income and a post-graduate education level, the person may have a significant amount of wealth. The bank can offer wealth management services to help them grow and protect their assets.
+3. Family financial planning: With a family of four members, the bank can offer financial planning services to help the person manage their family's finances and plan for their future needs.
+4. Personalized investment advice: The bank can use the person's income, education level, and risk profile to offer personalized investment advice that aligns with their financial goals and objectives.
+5. Credit card rewards program: Since the person has been predicted to opt for a credit card, the bank can offer a rewards program that suits their spending habits and offers benefits such as cashback, travel rewards, or discounts on specific purchases.
+6. Online banking and mobile app: The person has not opted for online banking, but the bank can encourage them to use their online and mobile banking services for convenience and easy access to their accounts.
+7. Financial education resources: As the person has a post-graduate education level, they may be interested in learning more about financial management and investing. The bank can offer educational resources such as webinars, seminars, and articles to help them make informed financial decisions.
+Overall, by offering personalized and relevant services, the bank can better understand the customer and build a long-term relationship with them. </t>
         </is>
       </c>
     </row>
@@ -589,15 +594,12 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank, having been a customer for 23 years. They have a high income of $114,000 and a small family of two members. Their average monthly expenditure is relatively low at $3,800. The person has a post-graduate education level and does not have a mortgage.
-The person also has a security account and a CDAccount, indicating that they are financially responsible and may be interested in investment opportunities. However, they have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized Investment Options: With a high income and a CDAccount, the person may be interested in exploring investment options. The bank can offer personalized investment plans based on the customer's risk appetite and financial goals.
-2. Online Banking and Credit Card: As the person has not opted for online banking or a credit card, the bank can offer these services and educate the customer about their benefits, such as convenience, security, and rewards.
-3. Financial Planning Services: With a high income and a small family, the person may have financial goals such as retirement planning, saving for their children's education, or buying a house. The bank can offer financial planning services to help the customer achieve these goals.
-4. Loyalty Programs: As the person has been a customer for 23 years, the bank can offer loyalty programs to reward their long-standing relationship and encourage them to use more services.
-5. Education Loan Options: As the person has a post-graduate education level, the bank can offer education loan options for their children's higher education, which can help build a stronger relationship with the customer.
-By offering these services, the bank can not only cater to the customer's needs but also gain a better understanding of their financial behavior and preferences. This can help the bank in creating targeted marketing strategies and improving customer satisfaction.</t>
+Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 23 years. They have a relatively high income of 114,000 per year and a small family of two members. Their average monthly expenditure is 3,800, indicating that they have a good financial standing.
+The person has a high level of education, with a post-graduation degree, which suggests that they may have a good understanding of financial products and services. They do not have any mortgage amount, which could indicate that they own their own home or have paid off their mortgage.
+The person also has a security account and a CDAccount, which suggests that they are interested in investing and saving for their future. However, they have not opted for online banking or a credit card, which could indicate that they prefer traditional banking methods.
+Based on this information, the bank can offer the person personalized investment and savings options, such as a high-interest savings account or a retirement plan. They can also offer financial planning services to help the person make the most of their income and manage their expenses effectively.
+Since the person has not opted for online banking or a credit card, the bank can offer them incentives to try out these services, such as cashback or rewards programs. They can also provide educational resources to help the person understand the benefits and convenience of online banking and credit cards.
+Overall, the bank can use this information to tailor their services and offers to the person's needs and preferences, ultimately building a stronger relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -614,15 +616,11 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 38 years old and has been associated with the bank for 14 years. They have a high income of 130,000 and a family of 4 members. Their average monthly expenditure is 4,700 and they have a post-graduate education level.
-The ML model predicted that this person might opt for a credit card, which suggests that they have a good credit score and are financially responsible. This person may also have a stable job and a good credit history.
-Some additional services that the bank can offer to this customer are:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
-2. Investment options: Based on the customer's income and financial goals, the bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their retirement years.
-5. Credit score monitoring: The bank can offer credit score monitoring services to help the customer keep track of their credit score and take necessary steps to maintain or improve it.
-By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their financial behavior and preferences. This can help the bank in providing personalized and targeted services to the customer in the future.</t>
+Based on the information provided, the person is a 38-year-old individual who has been associated with the bank for 14 years. They have a high income of 130,000 per year and a family of four. Their average monthly expenditure is 4,700 and they have a post-graduate education level.
+The ML model has predicted that this person is likely to opt for a credit card, which indicates that they may have a good credit score and a stable financial background. This information can be used by the bank to offer them a higher credit limit or lower interest rates on their credit card.
+In addition to a credit card, the bank can also offer this person other services such as a personal loan or a mortgage loan, as they have a high income and a good credit score. The bank can also provide investment options such as a fixed deposit or mutual funds, as this person has a high income and may be interested in growing their wealth.
+Furthermore, the person does not have a security account or online banking, which suggests that they may not be tech-savvy or prefer traditional banking methods. The bank can offer them personalized assistance and guidance in using online banking services to make their banking experience more convenient and efficient.
+Overall, the ML model has provided valuable insights into this person's financial behavior and preferences, which can help the bank tailor their services and offers to better suit their needs. By understanding their customer better, the bank can build a stronger relationship and provide a more personalized banking experience.</t>
         </is>
       </c>
     </row>
@@ -639,13 +637,11 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 44-year-old individual who has been associated with the bank for 18 years. They have an income of $43,000 per year and a family of two members. Their average monthly expenditure is $700 and they have a higher secondary education level.
-The ML model has predicted that this person is likely to opt for a credit card, which suggests that they may have a good credit score and a stable financial situation. This information can be used by the bank to offer them a variety of credit card options with attractive rewards and benefits.
-Additionally, the person also has a mortgage amount of $163, which indicates that they may be a homeowner. This information can be used by the bank to offer them home equity loans or other mortgage-related services.
-The person also has a security account and a CDAccount, which suggests that they are interested in investing and saving money. The bank can offer them investment options such as mutual funds, fixed deposits, or retirement plans.
-However, the person has not opted for online banking services, which could be an opportunity for the bank to promote their net banking services and educate the customer about the convenience and security of online banking.
-Since the person does not currently have a credit card, the bank can also offer them financial education and guidance on how to use credit cards responsibly and build a good credit score.
-Overall, the bank can use the information from the ML model to understand the customer's financial behavior and preferences, and offer them personalized services and products to meet their needs and enhance their banking experience.</t>
+Based on the information provided, the person is a 44-year-old with a long-standing relationship with the bank, having been a customer for 18 years. They have a moderate income of $43,000 per year and a small family of two members. Their average monthly expenditure is low at $700. They have a higher secondary education level and do not have a mortgage. However, they do have a security account and a CDAccount, indicating that they are financially responsible and have investments with the bank.
+Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options based on their income and expenditure. They can also offer financial planning services to help the customer manage their finances better. Additionally, the bank can provide educational resources on how to use credit cards responsibly and the benefits of having a credit card.
+To understand the customer better, the bank can also offer a financial health check-up, where they can analyze the customer's spending patterns and offer personalized advice on how to save and invest their money. This can help the customer make more informed financial decisions and build a stronger relationship with the bank.
+Furthermore, since the customer does not have an online account, the bank can offer them incentives to opt for net banking, such as cashback or rewards points for online transactions. This can also help the bank gather more data on the customer's spending habits and offer more personalized services in the future.
+Overall, by utilizing the ML model and understanding the customer's profile, the bank can offer tailored services and build a stronger relationship with the customer. This can lead to increased customer satisfaction and loyalty, ultimately benefiting the bank's business.</t>
         </is>
       </c>
     </row>
@@ -662,11 +658,13 @@
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, we can infer that the person is a middle-aged individual with a stable income and a relatively small family. They have been associated with the bank for a long time, indicating a sense of loyalty and trust towards the bank. The person has a high level of education, which suggests that they may have a good understanding of financial products and services.
-Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options with attractive rewards and benefits. Additionally, the bank can also offer investment options such as fixed deposits or mutual funds, given the person's stable income and long-term relationship with the bank. As the person does not have a security account, the bank can also offer them insurance products to protect their assets and provide financial security.
-To better understand the customer, the bank can conduct a survey or use data analytics to gather more information about their spending habits, financial goals, and preferences. This can help the bank tailor their services and offers to meet the specific needs of the customer. The bank can also provide financial planning and advisory services to help the customer make informed decisions about their finances.
-Furthermore, the bank can also offer online banking and mobile banking services to make banking more convenient for the customer. This can include features such as bill payments, fund transfers, and account management, which can help the customer save time and effort.
-Overall, by understanding the customer's profile and offering personalized services, the bank can build a strong relationship with the customer and increase their satisfaction and loyalty towards the bank.</t>
+Based on the information provided, the person is a 53-year-old individual who has been associated with the bank for 28 years. They have a relatively high income of 41,000 dollars and a small family of two members. Their average monthly expenditure is low at 600 dollars, indicating that they are financially responsible.
+The person has a high level of education, with a post-graduation degree. This suggests that they are well-educated and may have a good understanding of financial products and services.
+The person has a mortgage amount of 193,000 dollars, which indicates that they may have a significant asset and may be interested in investment opportunities.
+Although they do not have a security account, they have opted for a CDAccount, indicating that they are interested in long-term savings and investments.
+However, the person has not opted for online services, such as net banking or a credit card. This could be due to their age or personal preferences. The bank can offer them personalized assistance in setting up and using online services, as well as educating them about the benefits of having a credit card.
+Based on the person's profile, the bank can also offer them services such as retirement planning, investment advice, and insurance products. They can also provide personalized financial planning and guidance to help the person achieve their financial goals.
+Overall, the person seems to be financially stable and responsible, with a potential for long-term investment and savings. The bank can use this information to offer them personalized services and build a strong and long-lasting relationship with the customer.</t>
         </is>
       </c>
     </row>
@@ -683,16 +681,15 @@
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 24 years. They have an income of $81,000 per year and a family of three members. Their average monthly expenditure is relatively low at $700. They have completed higher secondary education and do not have a mortgage. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
+Based on the information provided, the person is a 48-year-old with a long-standing relationship with the bank, having been a customer for 24 years. They have a high income of 81,000 per month and a small family of three members. Their average monthly expenditure is relatively low at 700, indicating that they are financially responsible.
+The person has a higher secondary education level and has not taken out a mortgage. They do not have a security account but have opted for a CDAccount, indicating that they are interested in investing and saving for the future. However, they have not yet opted for online banking services or a credit card.
 Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Financial Planning Services: As the person is approaching retirement age, the bank can offer financial planning services to help them manage their income and expenses effectively.
-2. Investment Opportunities: With a relatively high income and no mortgage, the person may be interested in investing their money. The bank can offer investment opportunities such as mutual funds, stocks, and bonds.
-3. Credit Card Services: Since the ML model predicted that the person might opt for a credit card, the bank can offer them a credit card with attractive rewards and benefits to suit their spending habits.
-4. Online Banking: Although the person has not opted for online banking, the bank can offer them a demo and explain the benefits of managing their finances online, such as convenience, security, and real-time updates.
-5. Retirement Planning: With a long association with the bank and approaching retirement age, the person may be interested in retirement planning services. The bank can offer them retirement plans and options to secure their future.
-6. Family Banking Services: As the person has a family of three, the bank can offer family banking services such as joint accounts, children's savings accounts, and education loans.
-7. Personalized Services: The bank can use the ML model's predictions to offer personalized services to the customer, such as customized investment plans, credit card offers, and financial advice based on their spending habits and income.
-Overall, by utilizing the ML model's predictions and understanding the customer's profile, the bank can offer tailored services to cater to their needs and build a long-term relationship with the customer.</t>
+1. Financial Planning and Investment Services: Given the person's high income and interest in investing, the bank can offer personalized financial planning and investment services to help them grow their wealth and achieve their financial goals.
+2. Online Banking and Credit Card Services: As the person has not yet opted for online banking or a credit card, the bank can offer these services and educate them on the convenience and benefits of using them. This will also help the bank gather more data on the customer's spending habits and preferences.
+3. Retirement Planning: With the person's age and long-standing relationship with the bank, it would be beneficial to offer retirement planning services to help them prepare for their future financial needs.
+4. Family Banking Services: As the person has a small family, the bank can offer family banking services such as joint accounts, children's savings accounts, and education loans to cater to their family's financial needs.
+5. Personalized Customer Service: With the help of the ML model, the bank can gather more insights about the customer's preferences and offer personalized customer service, such as customized product recommendations and targeted marketing campaigns.
+Overall, by offering these services, the bank can better understand the customer's needs and build a stronger relationship with them, leading to increased customer satisfaction and loyalty.</t>
         </is>
       </c>
     </row>
@@ -709,11 +706,14 @@
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 42 years old and has been associated with the bank for 18 years. They have a high income of 141,000 per year and a small family of 3 members. Their average monthly expenditure is 5,000 and they have a post-graduate education level.
-Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options with attractive rewards and benefits. Additionally, the bank can also offer investment and wealth management services, given their high income and education level. They can also provide financial planning and advisory services to help the customer make informed decisions about their finances.
-Furthermore, the person has a security account and a CDAccount, indicating that they are interested in investing and saving. The bank can offer them various investment options such as mutual funds, stocks, and bonds. They can also provide online banking services, given that the person has opted for net banking. This can include features like bill payments, fund transfers, and online account management.
-Since the person does not currently have a credit card, the bank can also offer them financial education and guidance on how to use credit cards responsibly. This can help the customer understand the benefits and risks associated with credit cards and make informed decisions about their finances.
-Overall, the bank can use the ML model's prediction to offer personalized and relevant services to the customer, while also helping them understand their financial needs and goals. This can lead to a stronger and more long-term relationship between the customer and the bank.</t>
+Based on the information provided, the person is 42 years old and has been associated with the bank for 18 years. They have a high income of 141,000 per year and a family of 3 members. Their average monthly expenditure is 5,000. They have a post-graduate education level and do not have a mortgage. They have a security account and a CDAccount, and have opted for online banking. However, they have not yet opted for a credit card.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Investment and wealth management services: With a high income and a post-graduate education, this customer may be interested in investing their money in various financial instruments. The bank can offer personalized investment and wealth management services to help the customer grow their wealth.
+2. Retirement planning: As the customer is in their 40s, the bank can offer retirement planning services to help them plan for their future and ensure a comfortable retirement.
+3. Family banking services: With a family of 3 members, the bank can offer family banking services such as joint accounts, family insurance plans, and education savings plans for their children.
+4. Credit card rewards and benefits: Since the customer has not yet opted for a credit card, the bank can offer them attractive rewards and benefits to encourage them to apply for a credit card. This can include cashback, travel rewards, and discounts on purchases.
+5. Personalized loan options: With a high income and a good credit score, the bank can offer personalized loan options to the customer for their various financial needs such as home renovation, education, or a new car.
+To better understand the customer, the bank can also conduct a survey or hold focus groups to gather more information about their financial goals, preferences, and needs. This can help the bank tailor their services and offers to better suit the customer's requirements and build a long-term relationship with them.</t>
         </is>
       </c>
     </row>
@@ -730,15 +730,12 @@
       <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of 60,000 in thousands and a family of 3 members. Their average monthly expenditure is 2,300 in thousands. They have a higher secondary education level and do not have a mortgage amount. They do not have a security account but have a CDAccount and have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: With a stable income and family size, the bank can offer personalized financial planning services to help the customer manage their expenses and savings effectively.
-2. Investment options: As the customer has a CDAccount, the bank can offer various investment options such as fixed deposits, mutual funds, and other investment products to help the customer grow their wealth.
-3. Education loans: As the customer has a higher education level, the bank can offer education loans for their future studies or for their family members.
-4. Family banking services: With a family of 3 members, the bank can offer family banking services such as joint accounts, family insurance plans, and other services to cater to the financial needs of the entire family.
-5. Credit card options: As the customer has not opted for a credit card, the bank can offer various credit card options with attractive rewards and benefits to encourage them to opt for one.
-6. Online banking services: As the customer has not opted for online banking, the bank can educate them about the benefits of online banking and offer services such as bill payments, fund transfers, and other online transactions to make banking more convenient for them.
-Overall, the bank can use the ML model's prediction to understand the customer's financial behavior and offer personalized services to cater to their needs, thereby building a strong and long-lasting relationship with the customer.</t>
+Based on the information provided, we can infer that this person is a 34-year-old individual who has been associated with the bank for 9 years. They have an income of 60,000 per year and a family of 3 members. Their average monthly expenditure is 2,300 and they have a higher secondary education level.
+Since the ML model predicted that this person might opt for a credit card, the bank can offer them personalized credit card options based on their income and expenditure patterns. They can also offer them a financial planning service to help them manage their expenses and savings effectively.
+Additionally, the bank can offer them investment options such as a fixed deposit or mutual funds to help them grow their savings. They can also provide them with insurance services to protect their family's financial future.
+To understand the customer better, the bank can conduct a survey or use data analytics to gather more information about their spending habits, financial goals, and risk appetite. This will help the bank to offer personalized services and products that cater to the customer's specific needs and preferences.
+Furthermore, the bank can also provide financial education and resources to help the customer make informed decisions about their finances. This can include workshops, webinars, and online resources on topics such as budgeting, saving, and investing.
+Overall, by offering personalized services and understanding the customer's financial needs, the bank can build a strong and long-lasting relationship with this customer.</t>
         </is>
       </c>
     </row>
@@ -755,13 +752,12 @@
       <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is a 39-year-old individual who has been associated with the bank for 14 years. They have an income of $43,000 per year and a family of three members. Their average monthly expenditure is $700 and they have a graduation degree.
-The ML model has predicted that this person might opt for a credit card, which indicates that they are likely to have a good credit score and financial stability. This information can be used by the bank to offer them personalized credit card options with attractive rewards and benefits.
-Additionally, the person has a mortgage amount of $153, which suggests that they own a property and have a stable source of income. The bank can offer them services such as home loans, investment options, and insurance products.
-The person does not have a security account, which means they may not have any assets to secure a loan. The bank can offer them financial planning services to help them build their assets and secure their future.
-The person has a CDAccount and has opted for online banking, indicating that they are tech-savvy and prefer convenient banking options. The bank can offer them digital banking services, such as mobile banking and online bill payments, to enhance their banking experience.
-Since the person does not currently have a credit card, the bank can offer them credit education and counseling services to help them understand the benefits and responsible usage of credit cards. This can also help the bank to build a long-term relationship with the customer.
-In conclusion, the ML model has provided valuable insights about the customer, which can help the bank to offer personalized and relevant services to meet their financial needs and preferences. By understanding the customer better, the bank can build a strong and loyal customer base.</t>
+Based on the information provided, the person is a 39-year-old individual who has been associated with the bank for 14 years. They have an income of 43,000 per year and a family of 3 members. Their average monthly expenditure is 700 and they have a graduation degree.
+Since the ML model has predicted that this person is likely to opt for a credit card, the bank can offer them personalized credit card options with attractive rewards and benefits. Additionally, the bank can also offer them financial planning and investment services to help them manage their income and expenses effectively.
+Based on the person's income and expenditure, the bank can also suggest suitable savings and investment options to help them achieve their financial goals. The person's education level and years of association with the bank can also be used to offer them customized loan options for higher education or home loans.
+Since the person has a security account and has opted for online banking, the bank can also offer them digital banking services such as mobile banking and online bill payments. This will not only make banking more convenient for the customer but also help the bank in reducing operational costs.
+Furthermore, the bank can also offer the person personalized insurance plans based on their income and family size. This will not only provide financial security to the person and their family but also help the bank in cross-selling and increasing their revenue.
+Overall, by utilizing the information provided by the ML model, the bank can offer personalized and relevant services to the customer, thereby improving their overall banking experience and building a long-term relationship with them.</t>
         </is>
       </c>
     </row>
